--- a/data/draft.xlsx
+++ b/data/draft.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Lei\Documents\Git\tiSPHi\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZLei\Documents\Git\tiSPHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13A137-3256-42A5-97F4-D754E0153DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D8867-EF7C-46EE-A129-D696EB95C31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kernel" sheetId="1" r:id="rId1"/>
+    <sheet name="tensor" sheetId="2" r:id="rId2"/>
+    <sheet name="D-P" sheetId="3" r:id="rId3"/>
+    <sheet name="mu(I)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>r</t>
   </si>
@@ -44,11 +55,137 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>σij</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>σm</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>sij</t>
+  </si>
+  <si>
+    <t>-I1</t>
+  </si>
+  <si>
+    <t>√J2</t>
+  </si>
+  <si>
+    <t>f D-P</t>
+  </si>
+  <si>
+    <t>αφ</t>
+  </si>
+  <si>
+    <t>kc</t>
+  </si>
+  <si>
+    <t>check 1</t>
+  </si>
+  <si>
+    <t>check 2</t>
+  </si>
+  <si>
+    <t>σ1ij</t>
+  </si>
+  <si>
+    <t>σ2ij</t>
+  </si>
+  <si>
+    <t>rσ</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>εij</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ν</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>εm</t>
+  </si>
+  <si>
+    <t>s·ε</t>
+  </si>
+  <si>
+    <t>∇u</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>a i</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>x t+1</t>
+  </si>
+  <si>
+    <t>u t+1</t>
+  </si>
+  <si>
+    <t>u t</t>
+  </si>
+  <si>
+    <t>x t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,15 +195,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -74,15 +229,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,7 +391,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>kernel!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -148,7 +414,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>kernel!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -280,7 +546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$42</c:f>
+              <c:f>kernel!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -422,7 +688,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>kernel!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +711,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$42</c:f>
+              <c:f>kernel!$G$2:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -786,7 +1052,1188 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D-P'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>√J2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D-P'!$S$2:$S$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
+                <c:pt idx="0">
+                  <c:v>-32.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-28.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-25.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-22.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-21.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-20.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-19.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.167603807643381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.1676038076433812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.16760380764338123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83239619235661877</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8323961923566188</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>49.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>50.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>51.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>56.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>58.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>60.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>61.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>63.832396192356619</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>65.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>66.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>67.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>68.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>70.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>71.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>73.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>74.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>75.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>76.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>77.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>78.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>79.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>80.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>81.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>82.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>83.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>85.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>86.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>87.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>88.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>89.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>90.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>91.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>92.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>93.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>94.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>95.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>96.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97.832396192356612</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>98.832396192356612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D-P'!$T$2:$T$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="132"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1368577101552777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2737154203105554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41057313046583355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54743084062111125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68428855077638939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82114626093166709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95800397108694479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0948616812422225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2317193913975002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3685771015527779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.505434811708056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6422925218633337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7791502320186114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9160079421738891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0528656523291668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.189723362484445</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3265810726397227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4634387827950004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6002964929502781</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7371542031055558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8740119132608335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0108696234161112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1477273335713893</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.284585043726667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4214427538819447</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5583004640372229</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6951581741925006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8320158843477783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.968873594503056</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1057313046583337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2425890148136114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3794467249688891</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5163044351241668</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6531621452794454</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7900198554347231</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9268775655900008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0637352757452785</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2005929859005562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3374506960558339</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4743084062111116</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6111661163663893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.748023826521667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8848815366769447</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0217392468322224</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1585969569875001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2954546671427778</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4323123772980555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5691700874533341</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.7060277976086118</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8428855077638895</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9797432179191672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.1166009280744449</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.2534586382297235</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3903163483850012</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5271740585402789</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6640317686955566</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.8008894788508343</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.937747189006112</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0746048991613897</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.2114626093166674</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.3483203194719451</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4851780296272228</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.6220357397825005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.7588934499377782</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.8957511600930559</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0326088702483336</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.1694665804036113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.3063242905588908</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.4431820007141667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.5800397108694462</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.7168974210247221</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.8537551311800016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9906128413352775</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.127470551490557</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.264328261645833</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.401185971801112</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.53804368195639</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.674901392111668</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.811759102266945</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10.948616812422223</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.085474522577501</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.222332232732779</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.359189942888056</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.496047653043334</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.632905363198612</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.769763073353889</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.906620783509167</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.043478493664445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.180336203819724</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.317193913975</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12.45405162413028</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.590909334285556</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.727767044440835</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.864624754596111</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.00148246475139</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.138340174906666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.275197885061946</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.412055595217222</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.548913305372501</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.685771015527777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.822628725683057</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13.959486435838333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.096344145993612</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.233201856148888</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.370059566304167</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.506917276459443</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.643774986614723</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.780632696769999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.917490406925278</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15.054348117080554</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.191205827235834</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15.32806353739111</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15.464921247546389</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15.601778957701665</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15.738636667856944</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.875494378012224</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.0123520881675</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.149209798322779</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>16.286067508478055</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16.422925218633335</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16.559782928788611</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16.69664063894389</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16.833498349099166</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16.970356059254446</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>17.107213769409721</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>17.244071479565001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17.380929189720277</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17.517786899875556</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>17.654644610030832</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.791502320186112</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17.928360030341388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A17E-45FB-A0C8-D35D30DB77CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Current</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D-P'!$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-32.167603807643374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D-P'!$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A17E-45FB-A0C8-D35D30DB77CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1706880351"/>
+        <c:axId val="1706874111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1706880351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706874111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1706874111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706880351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1342,6 +2789,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1375,6 +3338,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>490068</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD65BF2C-7AD4-405E-9AFD-376417903977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="552450"/>
+          <a:ext cx="2318868" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393564</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEC082-AFFC-4FCC-BAC8-49D7F05BD4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3867150"/>
+          <a:ext cx="4660764" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436518</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD5CB9F-E203-4A18-A3ED-56B93572EC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6813550"/>
+          <a:ext cx="4094118" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521892A6-4BC6-4669-BA53-FF597C1AF4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1682,16 +3825,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC56443-BEBE-49C6-8331-0553B6217654}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>-1.9</v>
       </c>
@@ -1752,7 +3895,7 @@
         <v>3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>-1.8</v>
       </c>
@@ -1769,7 +3912,7 @@
         <v>1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="1">
         <v>-1.7</v>
       </c>
@@ -1786,7 +3929,7 @@
         <v>3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D6" s="1">
         <v>-1.6</v>
       </c>
@@ -1803,7 +3946,7 @@
         <v>5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D7" s="1">
         <v>-1.5</v>
       </c>
@@ -1820,7 +3963,7 @@
         <v>8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="1">
         <v>-1.4</v>
       </c>
@@ -1837,7 +3980,7 @@
         <v>0.12277667038517644</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <v>-1.3</v>
       </c>
@@ -1854,7 +3997,7 @@
         <v>0.16711269024649009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D10" s="1">
         <v>-1.2</v>
       </c>
@@ -1871,7 +4014,7 @@
         <v>0.21826963624031365</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D11" s="1">
         <v>-1.1000000000000001</v>
       </c>
@@ -1888,7 +4031,7 @@
         <v>0.27624750836664685</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
         <v>-1</v>
       </c>
@@ -1905,7 +4048,7 @@
         <v>0.34104630662549001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D13" s="1">
         <v>-0.9</v>
       </c>
@@ -1922,7 +4065,7 @@
         <v>0.39902417875182328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D14" s="1">
         <v>-0.8</v>
       </c>
@@ -1939,7 +4082,7 @@
         <v>0.43653927248062713</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
         <v>-0.7</v>
       </c>
@@ -1956,7 +4099,7 @@
         <v>0.45359158781190173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" s="1">
         <v>-0.6</v>
       </c>
@@ -1973,7 +4116,7 @@
         <v>0.45018112474564675</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>-0.5</v>
       </c>
@@ -1990,7 +4133,7 @@
         <v>0.42630788328186253</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
         <v>-0.4</v>
       </c>
@@ -2007,7 +4150,7 @@
         <v>0.38197186342054884</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <v>-0.3</v>
       </c>
@@ -2024,7 +4167,7 @@
         <v>0.31717306516170568</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
         <v>-0.2</v>
       </c>
@@ -2041,7 +4184,7 @@
         <v>0.23191148850533322</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>-0.1</v>
       </c>
@@ -2058,7 +4201,7 @@
         <v>0.12618713345143132</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -2075,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -2092,7 +4235,7 @@
         <v>-0.12618713345143132</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
         <v>0.2</v>
       </c>
@@ -2109,7 +4252,7 @@
         <v>-0.23191148850533322</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="1">
         <v>0.3</v>
       </c>
@@ -2126,7 +4269,7 @@
         <v>-0.31717306516170568</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="1">
         <v>0.4</v>
       </c>
@@ -2143,7 +4286,7 @@
         <v>-0.38197186342054884</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
@@ -2160,7 +4303,7 @@
         <v>-0.42630788328186253</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="1">
         <v>0.6</v>
       </c>
@@ -2177,7 +4320,7 @@
         <v>-0.45018112474564675</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="1">
         <v>0.7</v>
       </c>
@@ -2194,7 +4337,7 @@
         <v>-0.45359158781190173</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="1">
         <v>0.8</v>
       </c>
@@ -2211,7 +4354,7 @@
         <v>-0.43653927248062713</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="1">
         <v>0.9</v>
       </c>
@@ -2228,7 +4371,7 @@
         <v>-0.39902417875182328</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="1">
         <v>1</v>
       </c>
@@ -2245,7 +4388,7 @@
         <v>-0.34104630662549001</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2262,7 +4405,7 @@
         <v>-0.27624750836664685</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="1">
         <v>1.2</v>
       </c>
@@ -2279,7 +4422,7 @@
         <v>-0.21826963624031365</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="1">
         <v>1.3</v>
       </c>
@@ -2296,7 +4439,7 @@
         <v>-0.16711269024649009</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="1">
         <v>1.4</v>
       </c>
@@ -2313,7 +4456,7 @@
         <v>-0.12277667038517644</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="1">
         <v>1.5</v>
       </c>
@@ -2330,7 +4473,7 @@
         <v>-8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="1">
         <v>1.6</v>
       </c>
@@ -2347,7 +4490,7 @@
         <v>-5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="1">
         <v>1.7</v>
       </c>
@@ -2364,7 +4507,7 @@
         <v>-3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="1">
         <v>1.8</v>
       </c>
@@ -2381,7 +4524,7 @@
         <v>-1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="1">
         <v>1.9</v>
       </c>
@@ -2398,7 +4541,7 @@
         <v>-3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="1">
         <v>2</v>
       </c>
@@ -2419,4 +4562,2470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F602C2D-D916-485E-AA20-B22D6C0178BB}">
+  <dimension ref="A5:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>-40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <f>A6+B7+C8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-40</v>
+      </c>
+      <c r="B7">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>(A6*B7+B7*C8+C8*A6-B6*A7-C6*A8-C7*B8)</f>
+        <v>-36400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>-140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>A6*B7*C8+B6*C7*A8+C6*A7*B8-C6*B7*A8-B6*A7*C8-A6*C7*B8</f>
+        <v>-3456000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>(A6+B7+C8)/3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>B10</f>
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>B10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" ref="A16:C18" si="0">A6-A11</f>
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f>A16+B17+C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <f>-(A16*B17+B17*C18+C18*A16-B16*A17-C16*A18-C17*B18)</f>
+        <v>41200</v>
+      </c>
+      <c r="G17">
+        <f>(F6*F6-3*F7)/3</f>
+        <v>41200</v>
+      </c>
+      <c r="H17">
+        <f>0.5*SUMPRODUCT(A16:C18,A16:C18)</f>
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <f>A16*B17*C18+B16*C17*A18+C16*A17*B18-C16*B17*A18-B16*A17*C18-A16*C17*B18</f>
+        <v>-1872000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55E0DA0-2AF0-4271-897C-A22625348E11}">
+  <dimension ref="A1:T204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="12" width="9.6328125" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" customWidth="1"/>
+    <col min="14" max="16" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1850</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4">
+        <f>TAN(RADIANS(K2))/(SQRT(9+12*(TAN(RADIANS(K2)))^2))</f>
+        <v>0.13685771015527778</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4">
+        <f>3*K1/(SQRT(9+12*(TAN(RADIANS(K2)))^2))</f>
+        <v>4.4023845982962682</v>
+      </c>
+      <c r="S2">
+        <f>-N2/N1</f>
+        <v>-32.167603807643381</v>
+      </c>
+      <c r="T2" s="4">
+        <f>S2*$N$1+$N$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1800000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="9">
+        <f>K3/(2*(1+K4))</f>
+        <v>750000</v>
+      </c>
+      <c r="S3">
+        <f>S2+1</f>
+        <v>-31.167603807643381</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T66" si="0">S3*$N$1+$N$2</f>
+        <v>0.1368577101552777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="9">
+        <f>K3/(3*(1-2*K4))</f>
+        <v>1000000.0000000001</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="1">S3+1</f>
+        <v>-30.167603807643381</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2737154203105554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>-29.167603807643381</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41057313046583355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>-28.167603807643381</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54743084062111125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f>E2+G2*$H$2</f>
+        <v>3.0001000000000002</v>
+      </c>
+      <c r="F7">
+        <f>F2+E7*$H$2</f>
+        <v>5.0300010000000004</v>
+      </c>
+      <c r="G7">
+        <f>E7-E2</f>
+        <v>1.0000000000021103E-4</v>
+      </c>
+      <c r="H7">
+        <f>F7-F2</f>
+        <v>3.0001000000000388E-2</v>
+      </c>
+      <c r="J7" s="23">
+        <f>E17</f>
+        <v>10.722534602547793</v>
+      </c>
+      <c r="K7" s="24">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <f>G17</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <f>E12</f>
+        <v>3.3332222259327936E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <f>0.5*(F12+E13)</f>
+        <v>5.8329722509281867E-3</v>
+      </c>
+      <c r="P7" s="10">
+        <f>0.5*(G12+E14)</f>
+        <v>2.5008334430833756E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>-27.167603807643381</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68428855077638939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f>E3+G3*$H$2</f>
+        <v>2.0002</v>
+      </c>
+      <c r="F8">
+        <f>F3+E8*$H$2</f>
+        <v>5.0200019999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H9" si="2">E8-E3</f>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2.0001999999999853E-2</v>
+      </c>
+      <c r="J8" s="26">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <f>F18</f>
+        <v>10.722534602547791</v>
+      </c>
+      <c r="L8" s="28">
+        <f>G18</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N9" si="3">O7</f>
+        <v>5.8329722509281867E-3</v>
+      </c>
+      <c r="O8" s="10">
+        <f>F13</f>
+        <v>9.9990000999889729E-3</v>
+      </c>
+      <c r="P8" s="10">
+        <f>0.5*(G13+F14)</f>
+        <v>6.2518751875367679E-3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>-26.167603807643381</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82114626093166709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <f>E4+G4*$H$2</f>
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="F9">
+        <f>F4+E9*$H$2</f>
+        <v>5.0099985</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-1.4999999999998348E-4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>9.9985000000000213E-3</v>
+      </c>
+      <c r="J9" s="29">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <f>L8</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <f>G19</f>
+        <v>10.722534602547791</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>9.9990000999889729E-3</v>
+      </c>
+      <c r="O9">
+        <f>P8</f>
+        <v>6.2518751875367679E-3</v>
+      </c>
+      <c r="P9" s="10">
+        <f>G14</f>
+        <v>-1.5002250337548949E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>-25.167603807643381</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95800397108694479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>-24.167603807643381</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0948616812422225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f>(J7+K8+L9)/3</f>
+        <v>10.722534602547791</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <f>(N7+O8+P9)/3</f>
+        <v>-5.5667600387572741E-4</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>-23.167603807643381</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2317193913975002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>G7/H7</f>
+        <v>3.3332222259327936E-3</v>
+      </c>
+      <c r="F12">
+        <f>G7/H8</f>
+        <v>4.9995000500055878E-3</v>
+      </c>
+      <c r="G12">
+        <f>G7/H9</f>
+        <v>1.0001500225054839E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12">
+        <f>SUMPRODUCT(J14:L16,N7:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>-22.167603807643381</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3685771015527779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>G8/H7</f>
+        <v>6.6664444518507848E-3</v>
+      </c>
+      <c r="F13">
+        <f>G8/H8</f>
+        <v>9.9990000999889729E-3</v>
+      </c>
+      <c r="G13">
+        <f>G8/H9</f>
+        <v>2.0003000450065266E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="10" t="e">
+        <f>(3*N1*O11+(N3/K19)*O12)/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>-21.167603807643381</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.505434811708056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f>G9/H7</f>
+        <v>-4.9998333388880881E-3</v>
+      </c>
+      <c r="F14">
+        <f>G9/H8</f>
+        <v>-7.4992500749917297E-3</v>
+      </c>
+      <c r="G14">
+        <f>G9/H9</f>
+        <v>-1.5002250337548949E-2</v>
+      </c>
+      <c r="J14">
+        <f>J7-K11</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>-20.167603807643381</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6422925218633337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>K8-K11</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>L8</f>
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="9" t="e">
+        <f>$O$13*$N$3/$K$19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>-19.167603807643381</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7791502320186114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <f>J9</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>K9</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>L9-K11</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>-18.167603807643381</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9160079421738891</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E17" s="17">
+        <v>10.722534602547793</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="e">
+        <f>O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>-17.167603807643381</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0528656523291668</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>10.722534602547791</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <f>-(J7+K8+L9)</f>
+        <v>-32.167603807643374</v>
+      </c>
+      <c r="N18" s="9" t="e">
+        <f>P16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="9" t="e">
+        <f>P17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="13" t="e">
+        <f>$O$13*$N$3/$K$19/L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>-16.167603807643381</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.189723362484445</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>10.722534602547791</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3">
+        <f>SQRT(0.5*SUMPRODUCT(J14:L16,J14:L16))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>-15.167603807643381</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3265810726397227</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>-14.167603807643381</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4634387827950004</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="12">
+        <f>K19-$N$1*K18-$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>-13.167603807643381</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6002964929502781</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>-12.167603807643381</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7371542031055558</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="6">
+        <f>IF(K18*$N$1+$N$2&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="6">
+        <f>IF(K18*$N$1+$N$2&lt;$K$19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>-11.167603807643381</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8740119132608335</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f>(K18*N1+N2)/K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>-10.167603807643381</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0108696234161112</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>-9.1676038076433812</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1477273335713893</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J26" s="32">
+        <f>J7-(-$K$18-$N$2/$N$1)/3</f>
+        <v>10.722534602547794</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" ref="K26:L26" si="4">K7</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="32" t="e">
+        <f>$O$24*J14-$K$18/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="32" t="e">
+        <f>$O$24*K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="32" t="e">
+        <f>$O$24*L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>-8.1676038076433812</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.284585043726667</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J27" s="10">
+        <f>K26</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <f>K8-(-$K$18-$N$2/$N$1)/3</f>
+        <v>10.722534602547793</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" ref="L27" si="5">L8</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10" t="e">
+        <f>O26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="32" t="e">
+        <f>$O$24*K15-$K$18/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="32" t="e">
+        <f>$O$24*L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>-7.1676038076433812</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4214427538819447</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J28" s="10">
+        <f>L26</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <f>L9-(-$K$18-$N$2/$N$1)/3</f>
+        <v>10.722534602547793</v>
+      </c>
+      <c r="N28" s="10" t="e">
+        <f>P26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="10" t="e">
+        <f>P27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="32" t="e">
+        <f>$O$24*L16-$K$18/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>-6.1676038076433812</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5583004640372229</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>-5.1676038076433812</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6951581741925006</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <f>(J26+K27+L28)/3</f>
+        <v>10.722534602547791</v>
+      </c>
+      <c r="N30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" t="e">
+        <f>(N26+O27+P28)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>-4.1676038076433812</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8320158843477783</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>-3.1676038076433812</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" si="0"/>
+        <v>3.968873594503056</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>-2.1676038076433812</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1057313046583337</v>
+      </c>
+    </row>
+    <row r="33" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <f>J26-K30</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>K26</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>L26</f>
+        <v>0</v>
+      </c>
+      <c r="N33" t="e">
+        <f>N26-O30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" t="e">
+        <f>O26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" t="e">
+        <f>P26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>-1.1676038076433812</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2425890148136114</v>
+      </c>
+    </row>
+    <row r="34" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>K27-K30</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+      <c r="N34" t="e">
+        <f>N27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" t="e">
+        <f>O27-O30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" t="e">
+        <f>P27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>-0.16760380764338123</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3794467249688891</v>
+      </c>
+    </row>
+    <row r="35" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J35">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>L28-K30</f>
+        <v>0</v>
+      </c>
+      <c r="N35" t="e">
+        <f>N28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" t="e">
+        <f>O28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" t="e">
+        <f>P28-O30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.83239619235661877</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5163044351241668</v>
+      </c>
+    </row>
+    <row r="36" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>1.8323961923566188</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6531621452794454</v>
+      </c>
+    </row>
+    <row r="37" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <f>-(J26+K27+L28)</f>
+        <v>-32.167603807643374</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="e">
+        <f>-(N26+O27+P28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>2.8323961923566188</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7900198554347231</v>
+      </c>
+    </row>
+    <row r="38" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="3">
+        <f>SQRT(0.5*SUMPRODUCT(J33:L35,J33:L35))</f>
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="3" t="e">
+        <f>SQRT(0.5*SUMPRODUCT(N33:P35,N33:P35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>3.8323961923566188</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9268775655900008</v>
+      </c>
+    </row>
+    <row r="39" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>4.8323961923566188</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0637352757452785</v>
+      </c>
+    </row>
+    <row r="40" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="7">
+        <f>K38-$N$1*K37-$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="7" t="e">
+        <f>O38-$N$1*O37-$N$2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>5.8323961923566188</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2005929859005562</v>
+      </c>
+    </row>
+    <row r="41" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>6.8323961923566188</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3374506960558339</v>
+      </c>
+    </row>
+    <row r="42" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <f>IF(K37*$N$1+$N$2&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" t="e">
+        <f>IF(O37*$N$1+$N$2&lt;$O$38,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>7.8323961923566188</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4743084062111116</v>
+      </c>
+    </row>
+    <row r="43" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>8.8323961923566188</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6111661163663893</v>
+      </c>
+    </row>
+    <row r="44" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>9.8323961923566188</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="0"/>
+        <v>5.748023826521667</v>
+      </c>
+    </row>
+    <row r="45" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>10.832396192356619</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8848815366769447</v>
+      </c>
+    </row>
+    <row r="46" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>11.832396192356619</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0217392468322224</v>
+      </c>
+    </row>
+    <row r="47" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>12.832396192356619</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1585969569875001</v>
+      </c>
+    </row>
+    <row r="48" spans="10:20" x14ac:dyDescent="0.35">
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>13.832396192356619</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2954546671427778</v>
+      </c>
+    </row>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>14.832396192356619</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4323123772980555</v>
+      </c>
+    </row>
+    <row r="50" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>15.832396192356619</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5691700874533341</v>
+      </c>
+    </row>
+    <row r="51" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>16.832396192356619</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7060277976086118</v>
+      </c>
+    </row>
+    <row r="52" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>17.832396192356619</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8428855077638895</v>
+      </c>
+    </row>
+    <row r="53" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>18.832396192356619</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9797432179191672</v>
+      </c>
+    </row>
+    <row r="54" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>19.832396192356619</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1166009280744449</v>
+      </c>
+    </row>
+    <row r="55" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>20.832396192356619</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2534586382297235</v>
+      </c>
+    </row>
+    <row r="56" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>21.832396192356619</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3903163483850012</v>
+      </c>
+    </row>
+    <row r="57" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>22.832396192356619</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5271740585402789</v>
+      </c>
+    </row>
+    <row r="58" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>23.832396192356619</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6640317686955566</v>
+      </c>
+    </row>
+    <row r="59" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>24.832396192356619</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8008894788508343</v>
+      </c>
+    </row>
+    <row r="60" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>25.832396192356619</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="0"/>
+        <v>7.937747189006112</v>
+      </c>
+    </row>
+    <row r="61" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>26.832396192356619</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0746048991613897</v>
+      </c>
+    </row>
+    <row r="62" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>27.832396192356619</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2114626093166674</v>
+      </c>
+    </row>
+    <row r="63" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>28.832396192356619</v>
+      </c>
+      <c r="T63" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3483203194719451</v>
+      </c>
+    </row>
+    <row r="64" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>29.832396192356619</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4851780296272228</v>
+      </c>
+    </row>
+    <row r="65" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>30.832396192356619</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6220357397825005</v>
+      </c>
+    </row>
+    <row r="66" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>31.832396192356619</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7588934499377782</v>
+      </c>
+    </row>
+    <row r="67" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S67">
+        <f t="shared" si="1"/>
+        <v>32.832396192356619</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" ref="T67:T130" si="6">S67*$N$1+$N$2</f>
+        <v>8.8957511600930559</v>
+      </c>
+    </row>
+    <row r="68" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S68">
+        <f t="shared" ref="S68:S131" si="7">S67+1</f>
+        <v>33.832396192356619</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" si="6"/>
+        <v>9.0326088702483336</v>
+      </c>
+    </row>
+    <row r="69" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <f t="shared" si="7"/>
+        <v>34.832396192356619</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="6"/>
+        <v>9.1694665804036113</v>
+      </c>
+    </row>
+    <row r="70" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S70">
+        <f t="shared" si="7"/>
+        <v>35.832396192356619</v>
+      </c>
+      <c r="T70" s="4">
+        <f t="shared" si="6"/>
+        <v>9.3063242905588908</v>
+      </c>
+    </row>
+    <row r="71" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S71">
+        <f t="shared" si="7"/>
+        <v>36.832396192356619</v>
+      </c>
+      <c r="T71" s="4">
+        <f t="shared" si="6"/>
+        <v>9.4431820007141667</v>
+      </c>
+    </row>
+    <row r="72" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S72">
+        <f t="shared" si="7"/>
+        <v>37.832396192356619</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="6"/>
+        <v>9.5800397108694462</v>
+      </c>
+    </row>
+    <row r="73" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <f t="shared" si="7"/>
+        <v>38.832396192356619</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="6"/>
+        <v>9.7168974210247221</v>
+      </c>
+    </row>
+    <row r="74" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S74">
+        <f t="shared" si="7"/>
+        <v>39.832396192356619</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="6"/>
+        <v>9.8537551311800016</v>
+      </c>
+    </row>
+    <row r="75" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>40.832396192356619</v>
+      </c>
+      <c r="T75" s="4">
+        <f t="shared" si="6"/>
+        <v>9.9906128413352775</v>
+      </c>
+    </row>
+    <row r="76" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>41.832396192356619</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="6"/>
+        <v>10.127470551490557</v>
+      </c>
+    </row>
+    <row r="77" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S77">
+        <f t="shared" si="7"/>
+        <v>42.832396192356619</v>
+      </c>
+      <c r="T77" s="4">
+        <f t="shared" si="6"/>
+        <v>10.264328261645833</v>
+      </c>
+    </row>
+    <row r="78" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S78">
+        <f t="shared" si="7"/>
+        <v>43.832396192356619</v>
+      </c>
+      <c r="T78" s="4">
+        <f t="shared" si="6"/>
+        <v>10.401185971801112</v>
+      </c>
+    </row>
+    <row r="79" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S79">
+        <f t="shared" si="7"/>
+        <v>44.832396192356619</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="6"/>
+        <v>10.53804368195639</v>
+      </c>
+    </row>
+    <row r="80" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S80">
+        <f t="shared" si="7"/>
+        <v>45.832396192356619</v>
+      </c>
+      <c r="T80" s="4">
+        <f t="shared" si="6"/>
+        <v>10.674901392111668</v>
+      </c>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <f t="shared" si="7"/>
+        <v>46.832396192356619</v>
+      </c>
+      <c r="T81" s="4">
+        <f t="shared" si="6"/>
+        <v>10.811759102266945</v>
+      </c>
+    </row>
+    <row r="82" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S82">
+        <f t="shared" si="7"/>
+        <v>47.832396192356619</v>
+      </c>
+      <c r="T82" s="4">
+        <f t="shared" si="6"/>
+        <v>10.948616812422223</v>
+      </c>
+    </row>
+    <row r="83" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S83">
+        <f t="shared" si="7"/>
+        <v>48.832396192356619</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="6"/>
+        <v>11.085474522577501</v>
+      </c>
+    </row>
+    <row r="84" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S84">
+        <f t="shared" si="7"/>
+        <v>49.832396192356619</v>
+      </c>
+      <c r="T84" s="4">
+        <f t="shared" si="6"/>
+        <v>11.222332232732779</v>
+      </c>
+    </row>
+    <row r="85" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S85">
+        <f t="shared" si="7"/>
+        <v>50.832396192356619</v>
+      </c>
+      <c r="T85" s="4">
+        <f t="shared" si="6"/>
+        <v>11.359189942888056</v>
+      </c>
+    </row>
+    <row r="86" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S86">
+        <f t="shared" si="7"/>
+        <v>51.832396192356619</v>
+      </c>
+      <c r="T86" s="4">
+        <f t="shared" si="6"/>
+        <v>11.496047653043334</v>
+      </c>
+    </row>
+    <row r="87" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S87">
+        <f t="shared" si="7"/>
+        <v>52.832396192356619</v>
+      </c>
+      <c r="T87" s="4">
+        <f t="shared" si="6"/>
+        <v>11.632905363198612</v>
+      </c>
+    </row>
+    <row r="88" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S88">
+        <f t="shared" si="7"/>
+        <v>53.832396192356619</v>
+      </c>
+      <c r="T88" s="4">
+        <f t="shared" si="6"/>
+        <v>11.769763073353889</v>
+      </c>
+    </row>
+    <row r="89" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <f t="shared" si="7"/>
+        <v>54.832396192356619</v>
+      </c>
+      <c r="T89" s="4">
+        <f t="shared" si="6"/>
+        <v>11.906620783509167</v>
+      </c>
+    </row>
+    <row r="90" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S90">
+        <f t="shared" si="7"/>
+        <v>55.832396192356619</v>
+      </c>
+      <c r="T90" s="4">
+        <f t="shared" si="6"/>
+        <v>12.043478493664445</v>
+      </c>
+    </row>
+    <row r="91" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S91">
+        <f t="shared" si="7"/>
+        <v>56.832396192356619</v>
+      </c>
+      <c r="T91" s="4">
+        <f t="shared" si="6"/>
+        <v>12.180336203819724</v>
+      </c>
+    </row>
+    <row r="92" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S92">
+        <f t="shared" si="7"/>
+        <v>57.832396192356619</v>
+      </c>
+      <c r="T92" s="4">
+        <f t="shared" si="6"/>
+        <v>12.317193913975</v>
+      </c>
+    </row>
+    <row r="93" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S93">
+        <f t="shared" si="7"/>
+        <v>58.832396192356619</v>
+      </c>
+      <c r="T93" s="4">
+        <f t="shared" si="6"/>
+        <v>12.45405162413028</v>
+      </c>
+    </row>
+    <row r="94" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S94">
+        <f t="shared" si="7"/>
+        <v>59.832396192356619</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="6"/>
+        <v>12.590909334285556</v>
+      </c>
+    </row>
+    <row r="95" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <f t="shared" si="7"/>
+        <v>60.832396192356619</v>
+      </c>
+      <c r="T95" s="4">
+        <f t="shared" si="6"/>
+        <v>12.727767044440835</v>
+      </c>
+    </row>
+    <row r="96" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S96">
+        <f t="shared" si="7"/>
+        <v>61.832396192356619</v>
+      </c>
+      <c r="T96" s="4">
+        <f t="shared" si="6"/>
+        <v>12.864624754596111</v>
+      </c>
+    </row>
+    <row r="97" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S97">
+        <f t="shared" si="7"/>
+        <v>62.832396192356619</v>
+      </c>
+      <c r="T97" s="4">
+        <f t="shared" si="6"/>
+        <v>13.00148246475139</v>
+      </c>
+    </row>
+    <row r="98" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S98">
+        <f t="shared" si="7"/>
+        <v>63.832396192356619</v>
+      </c>
+      <c r="T98" s="4">
+        <f t="shared" si="6"/>
+        <v>13.138340174906666</v>
+      </c>
+    </row>
+    <row r="99" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S99">
+        <f t="shared" si="7"/>
+        <v>64.832396192356612</v>
+      </c>
+      <c r="T99" s="4">
+        <f t="shared" si="6"/>
+        <v>13.275197885061946</v>
+      </c>
+    </row>
+    <row r="100" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S100">
+        <f t="shared" si="7"/>
+        <v>65.832396192356612</v>
+      </c>
+      <c r="T100" s="4">
+        <f t="shared" si="6"/>
+        <v>13.412055595217222</v>
+      </c>
+    </row>
+    <row r="101" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S101">
+        <f t="shared" si="7"/>
+        <v>66.832396192356612</v>
+      </c>
+      <c r="T101" s="4">
+        <f t="shared" si="6"/>
+        <v>13.548913305372501</v>
+      </c>
+    </row>
+    <row r="102" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S102">
+        <f t="shared" si="7"/>
+        <v>67.832396192356612</v>
+      </c>
+      <c r="T102" s="4">
+        <f t="shared" si="6"/>
+        <v>13.685771015527777</v>
+      </c>
+    </row>
+    <row r="103" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S103">
+        <f t="shared" si="7"/>
+        <v>68.832396192356612</v>
+      </c>
+      <c r="T103" s="4">
+        <f t="shared" si="6"/>
+        <v>13.822628725683057</v>
+      </c>
+    </row>
+    <row r="104" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S104">
+        <f t="shared" si="7"/>
+        <v>69.832396192356612</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="6"/>
+        <v>13.959486435838333</v>
+      </c>
+    </row>
+    <row r="105" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S105">
+        <f t="shared" si="7"/>
+        <v>70.832396192356612</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="6"/>
+        <v>14.096344145993612</v>
+      </c>
+    </row>
+    <row r="106" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <f t="shared" si="7"/>
+        <v>71.832396192356612</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="6"/>
+        <v>14.233201856148888</v>
+      </c>
+    </row>
+    <row r="107" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S107">
+        <f t="shared" si="7"/>
+        <v>72.832396192356612</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="6"/>
+        <v>14.370059566304167</v>
+      </c>
+    </row>
+    <row r="108" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S108">
+        <f t="shared" si="7"/>
+        <v>73.832396192356612</v>
+      </c>
+      <c r="T108" s="4">
+        <f t="shared" si="6"/>
+        <v>14.506917276459443</v>
+      </c>
+    </row>
+    <row r="109" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S109">
+        <f t="shared" si="7"/>
+        <v>74.832396192356612</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="6"/>
+        <v>14.643774986614723</v>
+      </c>
+    </row>
+    <row r="110" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S110">
+        <f t="shared" si="7"/>
+        <v>75.832396192356612</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="6"/>
+        <v>14.780632696769999</v>
+      </c>
+    </row>
+    <row r="111" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S111">
+        <f t="shared" si="7"/>
+        <v>76.832396192356612</v>
+      </c>
+      <c r="T111" s="4">
+        <f t="shared" si="6"/>
+        <v>14.917490406925278</v>
+      </c>
+    </row>
+    <row r="112" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S112">
+        <f t="shared" si="7"/>
+        <v>77.832396192356612</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" si="6"/>
+        <v>15.054348117080554</v>
+      </c>
+    </row>
+    <row r="113" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S113">
+        <f t="shared" si="7"/>
+        <v>78.832396192356612</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" si="6"/>
+        <v>15.191205827235834</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S114">
+        <f t="shared" si="7"/>
+        <v>79.832396192356612</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" si="6"/>
+        <v>15.32806353739111</v>
+      </c>
+    </row>
+    <row r="115" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S115">
+        <f t="shared" si="7"/>
+        <v>80.832396192356612</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" si="6"/>
+        <v>15.464921247546389</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S116">
+        <f t="shared" si="7"/>
+        <v>81.832396192356612</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" si="6"/>
+        <v>15.601778957701665</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S117">
+        <f t="shared" si="7"/>
+        <v>82.832396192356612</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" si="6"/>
+        <v>15.738636667856944</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S118">
+        <f t="shared" si="7"/>
+        <v>83.832396192356612</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" si="6"/>
+        <v>15.875494378012224</v>
+      </c>
+    </row>
+    <row r="119" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S119">
+        <f t="shared" si="7"/>
+        <v>84.832396192356612</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" si="6"/>
+        <v>16.0123520881675</v>
+      </c>
+    </row>
+    <row r="120" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S120">
+        <f t="shared" si="7"/>
+        <v>85.832396192356612</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" si="6"/>
+        <v>16.149209798322779</v>
+      </c>
+    </row>
+    <row r="121" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S121">
+        <f t="shared" si="7"/>
+        <v>86.832396192356612</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" si="6"/>
+        <v>16.286067508478055</v>
+      </c>
+    </row>
+    <row r="122" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S122">
+        <f t="shared" si="7"/>
+        <v>87.832396192356612</v>
+      </c>
+      <c r="T122" s="4">
+        <f t="shared" si="6"/>
+        <v>16.422925218633335</v>
+      </c>
+    </row>
+    <row r="123" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S123">
+        <f t="shared" si="7"/>
+        <v>88.832396192356612</v>
+      </c>
+      <c r="T123" s="4">
+        <f t="shared" si="6"/>
+        <v>16.559782928788611</v>
+      </c>
+    </row>
+    <row r="124" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S124">
+        <f t="shared" si="7"/>
+        <v>89.832396192356612</v>
+      </c>
+      <c r="T124" s="4">
+        <f t="shared" si="6"/>
+        <v>16.69664063894389</v>
+      </c>
+    </row>
+    <row r="125" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S125">
+        <f t="shared" si="7"/>
+        <v>90.832396192356612</v>
+      </c>
+      <c r="T125" s="4">
+        <f t="shared" si="6"/>
+        <v>16.833498349099166</v>
+      </c>
+    </row>
+    <row r="126" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S126">
+        <f t="shared" si="7"/>
+        <v>91.832396192356612</v>
+      </c>
+      <c r="T126" s="4">
+        <f t="shared" si="6"/>
+        <v>16.970356059254446</v>
+      </c>
+    </row>
+    <row r="127" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S127">
+        <f t="shared" si="7"/>
+        <v>92.832396192356612</v>
+      </c>
+      <c r="T127" s="4">
+        <f t="shared" si="6"/>
+        <v>17.107213769409721</v>
+      </c>
+    </row>
+    <row r="128" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S128">
+        <f t="shared" si="7"/>
+        <v>93.832396192356612</v>
+      </c>
+      <c r="T128" s="4">
+        <f t="shared" si="6"/>
+        <v>17.244071479565001</v>
+      </c>
+    </row>
+    <row r="129" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S129">
+        <f t="shared" si="7"/>
+        <v>94.832396192356612</v>
+      </c>
+      <c r="T129" s="4">
+        <f t="shared" si="6"/>
+        <v>17.380929189720277</v>
+      </c>
+    </row>
+    <row r="130" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S130">
+        <f t="shared" si="7"/>
+        <v>95.832396192356612</v>
+      </c>
+      <c r="T130" s="4">
+        <f t="shared" si="6"/>
+        <v>17.517786899875556</v>
+      </c>
+    </row>
+    <row r="131" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S131">
+        <f t="shared" si="7"/>
+        <v>96.832396192356612</v>
+      </c>
+      <c r="T131" s="4">
+        <f t="shared" ref="T131:T134" si="8">S131*$N$1+$N$2</f>
+        <v>17.654644610030832</v>
+      </c>
+    </row>
+    <row r="132" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S132">
+        <f t="shared" ref="S132:S134" si="9">S131+1</f>
+        <v>97.832396192356612</v>
+      </c>
+      <c r="T132" s="4">
+        <f t="shared" si="8"/>
+        <v>17.791502320186112</v>
+      </c>
+    </row>
+    <row r="133" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S133">
+        <f t="shared" si="9"/>
+        <v>98.832396192356612</v>
+      </c>
+      <c r="T133" s="4">
+        <f t="shared" si="8"/>
+        <v>17.928360030341388</v>
+      </c>
+    </row>
+    <row r="134" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="S134">
+        <f t="shared" si="9"/>
+        <v>99.832396192356612</v>
+      </c>
+      <c r="T134" s="4">
+        <f t="shared" si="8"/>
+        <v>18.065217740496667</v>
+      </c>
+    </row>
+    <row r="135" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T135" s="4"/>
+    </row>
+    <row r="136" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T136" s="4"/>
+    </row>
+    <row r="137" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T138" s="4"/>
+    </row>
+    <row r="139" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T140" s="4"/>
+    </row>
+    <row r="141" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T141" s="4"/>
+    </row>
+    <row r="142" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T142" s="4"/>
+    </row>
+    <row r="143" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T143" s="4"/>
+    </row>
+    <row r="144" spans="19:20" x14ac:dyDescent="0.35">
+      <c r="T144" s="4"/>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T145" s="4"/>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T146" s="4"/>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T147" s="4"/>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T149" s="4"/>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T157" s="4"/>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T163" s="4"/>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T164" s="4"/>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T165" s="4"/>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T166" s="4"/>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T167" s="4"/>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T168" s="4"/>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T169" s="4"/>
+    </row>
+    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T171" s="4"/>
+    </row>
+    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T172" s="4"/>
+    </row>
+    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T173" s="4"/>
+    </row>
+    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T174" s="4"/>
+    </row>
+    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T175" s="4"/>
+    </row>
+    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T176" s="4"/>
+    </row>
+    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T177" s="4"/>
+    </row>
+    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T178" s="4"/>
+    </row>
+    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T179" s="4"/>
+    </row>
+    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T180" s="4"/>
+    </row>
+    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T181" s="4"/>
+    </row>
+    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T182" s="4"/>
+    </row>
+    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T183" s="4"/>
+    </row>
+    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T184" s="4"/>
+    </row>
+    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T185" s="4"/>
+    </row>
+    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T186" s="4"/>
+    </row>
+    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T187" s="4"/>
+    </row>
+    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T188" s="4"/>
+    </row>
+    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T189" s="4"/>
+    </row>
+    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T190" s="4"/>
+    </row>
+    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T191" s="4"/>
+    </row>
+    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T192" s="4"/>
+    </row>
+    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T193" s="4"/>
+    </row>
+    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T194" s="4"/>
+    </row>
+    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T195" s="4"/>
+    </row>
+    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T196" s="4"/>
+    </row>
+    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T197" s="4"/>
+    </row>
+    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T198" s="4"/>
+    </row>
+    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T199" s="4"/>
+    </row>
+    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T200" s="4"/>
+    </row>
+    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T201" s="4"/>
+    </row>
+    <row r="202" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T202" s="4"/>
+    </row>
+    <row r="203" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T203" s="4"/>
+    </row>
+    <row r="204" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T204" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957D1ED-1713-4647-99F4-7ACEAE5B664E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/draft.xlsx
+++ b/data/draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZLei\Documents\Git\tiSPHi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Lei\Documents\Git\tiSPHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D8867-EF7C-46EE-A129-D696EB95C31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DC862-3D17-4A30-963C-E22F53A2A7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
   </bookViews>
   <sheets>
     <sheet name="kernel" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1958,7 +1950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-32.167603807643374</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +1962,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5166114784235831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,12 +3821,12 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3854,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
         <v>-1.9</v>
       </c>
@@ -3895,7 +3887,7 @@
         <v>3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>-1.8</v>
       </c>
@@ -3912,7 +3904,7 @@
         <v>1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>-1.7</v>
       </c>
@@ -3929,7 +3921,7 @@
         <v>3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>-1.6</v>
       </c>
@@ -3946,7 +3938,7 @@
         <v>5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>-1.5</v>
       </c>
@@ -3963,7 +3955,7 @@
         <v>8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>-1.4</v>
       </c>
@@ -3980,7 +3972,7 @@
         <v>0.12277667038517644</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>-1.3</v>
       </c>
@@ -3997,7 +3989,7 @@
         <v>0.16711269024649009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>-1.2</v>
       </c>
@@ -4014,7 +4006,7 @@
         <v>0.21826963624031365</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>-1.1000000000000001</v>
       </c>
@@ -4031,7 +4023,7 @@
         <v>0.27624750836664685</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>-1</v>
       </c>
@@ -4048,7 +4040,7 @@
         <v>0.34104630662549001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>-0.9</v>
       </c>
@@ -4065,7 +4057,7 @@
         <v>0.39902417875182328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>-0.8</v>
       </c>
@@ -4082,7 +4074,7 @@
         <v>0.43653927248062713</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>-0.7</v>
       </c>
@@ -4099,7 +4091,7 @@
         <v>0.45359158781190173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>-0.6</v>
       </c>
@@ -4116,7 +4108,7 @@
         <v>0.45018112474564675</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>-0.5</v>
       </c>
@@ -4133,7 +4125,7 @@
         <v>0.42630788328186253</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>-0.4</v>
       </c>
@@ -4150,7 +4142,7 @@
         <v>0.38197186342054884</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>-0.3</v>
       </c>
@@ -4167,7 +4159,7 @@
         <v>0.31717306516170568</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>-0.2</v>
       </c>
@@ -4184,7 +4176,7 @@
         <v>0.23191148850533322</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>-0.1</v>
       </c>
@@ -4201,7 +4193,7 @@
         <v>0.12618713345143132</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -4218,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -4235,7 +4227,7 @@
         <v>-0.12618713345143132</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>0.2</v>
       </c>
@@ -4252,7 +4244,7 @@
         <v>-0.23191148850533322</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>0.3</v>
       </c>
@@ -4269,7 +4261,7 @@
         <v>-0.31717306516170568</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>0.4</v>
       </c>
@@ -4286,7 +4278,7 @@
         <v>-0.38197186342054884</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
@@ -4303,7 +4295,7 @@
         <v>-0.42630788328186253</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>0.6</v>
       </c>
@@ -4320,7 +4312,7 @@
         <v>-0.45018112474564675</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>0.7</v>
       </c>
@@ -4337,7 +4329,7 @@
         <v>-0.45359158781190173</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1">
         <v>0.8</v>
       </c>
@@ -4354,7 +4346,7 @@
         <v>-0.43653927248062713</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>0.9</v>
       </c>
@@ -4371,7 +4363,7 @@
         <v>-0.39902417875182328</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>1</v>
       </c>
@@ -4388,7 +4380,7 @@
         <v>-0.34104630662549001</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4405,7 +4397,7 @@
         <v>-0.27624750836664685</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>1.2</v>
       </c>
@@ -4422,7 +4414,7 @@
         <v>-0.21826963624031365</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>1.3</v>
       </c>
@@ -4439,7 +4431,7 @@
         <v>-0.16711269024649009</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <v>1.4</v>
       </c>
@@ -4456,7 +4448,7 @@
         <v>-0.12277667038517644</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>1.5</v>
       </c>
@@ -4473,7 +4465,7 @@
         <v>-8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <v>1.6</v>
       </c>
@@ -4490,7 +4482,7 @@
         <v>-5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <v>1.7</v>
       </c>
@@ -4507,7 +4499,7 @@
         <v>-3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1">
         <v>1.8</v>
       </c>
@@ -4524,7 +4516,7 @@
         <v>-1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <v>1.9</v>
       </c>
@@ -4541,7 +4533,7 @@
         <v>-3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <v>2</v>
       </c>
@@ -4572,14 +4564,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -4597,7 +4589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-40</v>
       </c>
@@ -4615,7 +4607,7 @@
         <v>-36400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4633,7 +4625,7 @@
         <v>-3456000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>B10</f>
         <v>40</v>
@@ -4654,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4666,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4678,12 +4670,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:C18" si="0">A6-A11</f>
         <v>60</v>
@@ -4704,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>-40</v>
@@ -4733,7 +4725,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4765,17 +4757,17 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="12" width="9.6328125" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" customWidth="1"/>
-    <col min="14" max="16" width="9.6328125" customWidth="1"/>
+    <col min="10" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +4806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E2" s="5">
         <v>3</v>
       </c>
@@ -4849,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -4881,7 +4873,7 @@
         <v>0.1368577101552777</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -4913,7 +4905,7 @@
         <v>0.2737154203105554</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S5">
         <f t="shared" si="1"/>
         <v>-29.167603807643381</v>
@@ -4923,7 +4915,7 @@
         <v>0.41057313046583355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>44</v>
       </c>
@@ -4951,7 +4943,7 @@
         <v>0.54743084062111125</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>E2+G2*$H$2</f>
         <v>3.0001000000000002</v>
@@ -4970,11 +4962,11 @@
       </c>
       <c r="J7" s="23">
         <f>E17</f>
-        <v>10.722534602547793</v>
+        <v>11</v>
       </c>
       <c r="K7" s="24">
         <f>F17</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L7" s="25">
         <f>G17</f>
@@ -5001,7 +4993,7 @@
         <v>0.68428855077638939</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>E3+G3*$H$2</f>
         <v>2.0002</v>
@@ -5020,11 +5012,11 @@
       </c>
       <c r="J8" s="26">
         <f>K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="27">
         <f>F18</f>
-        <v>10.722534602547791</v>
+        <v>8</v>
       </c>
       <c r="L8" s="28">
         <f>G18</f>
@@ -5051,7 +5043,7 @@
         <v>0.82114626093166709</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9">
         <f>E4+G4*$H$2</f>
         <v>0.99985000000000002</v>
@@ -5078,7 +5070,7 @@
       </c>
       <c r="L9" s="31">
         <f>G19</f>
-        <v>10.722534602547791</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
@@ -5101,7 +5093,7 @@
         <v>0.95800397108694479</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S10">
         <f t="shared" si="1"/>
         <v>-24.167603807643381</v>
@@ -5111,7 +5103,7 @@
         <v>1.0948616812422225</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>36</v>
       </c>
@@ -5120,7 +5112,7 @@
       </c>
       <c r="K11">
         <f>(J7+K8+L9)/3</f>
-        <v>10.722534602547791</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -5138,7 +5130,7 @@
         <v>1.2317193913975002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E12">
         <f>G7/H7</f>
         <v>3.3332222259327936E-3</v>
@@ -5156,7 +5148,7 @@
       </c>
       <c r="O12">
         <f>SUMPRODUCT(J14:L16,N7:P9)</f>
-        <v>0</v>
+        <v>-4.0553342981633628E-2</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
@@ -5167,7 +5159,7 @@
         <v>1.3685771015527779</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13">
         <f>G8/H7</f>
         <v>6.6664444518507848E-3</v>
@@ -5186,9 +5178,9 @@
       <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="10" t="e">
+      <c r="O13" s="10">
         <f>(3*N1*O11+(N3/K19)*O12)/N3</f>
-        <v>#DIV/0!</v>
+        <v>-1.6114264794640717E-2</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
@@ -5199,7 +5191,7 @@
         <v>1.505434811708056</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14">
         <f>G9/H7</f>
         <v>-4.9998333388880881E-3</v>
@@ -5214,11 +5206,11 @@
       </c>
       <c r="J14">
         <f>J7-K11</f>
-        <v>0</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="K14">
         <f>K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L14">
         <f>L7</f>
@@ -5233,14 +5225,14 @@
         <v>1.6422925218633337</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J15">
         <f>J8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K15">
         <f>K8-K11</f>
-        <v>0</v>
+        <v>-1.6666666666666661</v>
       </c>
       <c r="L15">
         <f>L8</f>
@@ -5249,9 +5241,9 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="9">
         <f>$O$13*$N$3/$K$19</f>
-        <v>#DIV/0!</v>
+        <v>-4802.369654433538</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
@@ -5262,7 +5254,7 @@
         <v>1.7791502320186114</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -5276,15 +5268,15 @@
       </c>
       <c r="L16">
         <f>L9-K11</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="e">
+        <v>0.33333333333333393</v>
+      </c>
+      <c r="N16" s="13">
         <f>$O$13*$N$3/$K$19/J14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="13" t="e">
+        <v>-3601.7772408251517</v>
+      </c>
+      <c r="O16" s="13">
         <f>$O$13*$N$3/$K$19/K14</f>
-        <v>#DIV/0!</v>
+        <v>2401.184827216769</v>
       </c>
       <c r="P16" s="13" t="e">
         <f>$O$13*$N$3/$K$19/L14</f>
@@ -5299,23 +5291,23 @@
         <v>1.9160079421738891</v>
       </c>
     </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E17" s="17">
-        <v>10.722534602547793</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="9" t="e">
+      <c r="N17" s="9">
         <f>O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="13" t="e">
+        <v>2401.184827216769</v>
+      </c>
+      <c r="O17" s="13">
         <f>$O$13*$N$3/$K$19/K15</f>
-        <v>#DIV/0!</v>
+        <v>2881.4217926601236</v>
       </c>
       <c r="P17" s="13" t="e">
         <f>$O$13*$N$3/$K$19/L15</f>
@@ -5330,12 +5322,12 @@
         <v>2.0528656523291668</v>
       </c>
     </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="20">
-        <v>10.722534602547791</v>
+        <v>8</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
@@ -5345,7 +5337,7 @@
       </c>
       <c r="K18">
         <f>-(J7+K8+L9)</f>
-        <v>-32.167603807643374</v>
+        <v>-29</v>
       </c>
       <c r="N18" s="9" t="e">
         <f>P16</f>
@@ -5355,9 +5347,9 @@
         <f>P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="13" t="e">
+      <c r="P18" s="13">
         <f>$O$13*$N$3/$K$19/L16</f>
-        <v>#DIV/0!</v>
+        <v>-14407.108963300589</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -5368,7 +5360,7 @@
         <v>2.189723362484445</v>
       </c>
     </row>
-    <row r="19" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="15">
         <v>0</v>
       </c>
@@ -5376,14 +5368,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="22">
-        <v>10.722534602547791</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J14:L16,J14:L16))</f>
-        <v>0</v>
+        <v>2.5166114784235831</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -5397,7 +5389,7 @@
         <v>2.3265810726397227</v>
       </c>
     </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
       <c r="S20">
         <f t="shared" si="1"/>
         <v>-14.167603807643381</v>
@@ -5407,13 +5399,13 @@
         <v>2.4634387827950004</v>
       </c>
     </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="12">
         <f>K19-$N$1*K18-$N$2</f>
-        <v>0</v>
+        <v>2.0831004746303705</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -5424,7 +5416,7 @@
         <v>2.6002964929502781</v>
       </c>
     </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
       <c r="S22">
         <f t="shared" si="1"/>
         <v>-12.167603807643381</v>
@@ -5434,7 +5426,7 @@
         <v>2.7371542031055558</v>
       </c>
     </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +5439,7 @@
       </c>
       <c r="O23" s="6">
         <f>IF(K18*$N$1+$N$2&lt;$K$19,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
@@ -5458,13 +5450,13 @@
         <v>2.8740119132608335</v>
       </c>
     </row>
-    <row r="24" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="4" t="e">
+      <c r="O24" s="4">
         <f>(K18*N1+N2)/K19</f>
-        <v>#DIV/0!</v>
+        <v>0.17225980550035713</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
@@ -5475,7 +5467,7 @@
         <v>3.0108696234161112</v>
       </c>
     </row>
-    <row r="25" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>25</v>
       </c>
@@ -5491,30 +5483,30 @@
         <v>3.1477273335713893</v>
       </c>
     </row>
-    <row r="26" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J26" s="32">
         <f>J7-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547794</v>
+        <v>12.055867935881126</v>
       </c>
       <c r="K26" s="32">
         <f t="shared" ref="K26:L26" si="4">K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L26" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="32" t="e">
+      <c r="N26" s="32">
         <f>$O$24*J14-$K$18/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="32" t="e">
+        <v>9.8963464073338088</v>
+      </c>
+      <c r="O26" s="32">
         <f>$O$24*K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="32" t="e">
+        <v>-0.34451961100071427</v>
+      </c>
+      <c r="P26" s="32">
         <f>$O$24*L7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -5525,30 +5517,30 @@
         <v>3.284585043726667</v>
       </c>
     </row>
-    <row r="27" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J27" s="10">
         <f>K26</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K27" s="32">
         <f>K8-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547793</v>
+        <v>9.0558679358811265</v>
       </c>
       <c r="L27" s="32">
         <f t="shared" ref="L27" si="5">L8</f>
         <v>0</v>
       </c>
-      <c r="N27" s="10" t="e">
+      <c r="N27" s="10">
         <f>O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="32" t="e">
+        <v>-0.34451961100071427</v>
+      </c>
+      <c r="O27" s="32">
         <f>$O$24*K15-$K$18/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="32" t="e">
+        <v>9.3795669908327373</v>
+      </c>
+      <c r="P27" s="32">
         <f>$O$24*L8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
@@ -5559,7 +5551,7 @@
         <v>3.4214427538819447</v>
       </c>
     </row>
-    <row r="28" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J28" s="10">
         <f>L26</f>
         <v>0</v>
@@ -5570,19 +5562,19 @@
       </c>
       <c r="L28" s="32">
         <f>L9-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547793</v>
-      </c>
-      <c r="N28" s="10" t="e">
+        <v>11.055867935881126</v>
+      </c>
+      <c r="N28" s="10">
         <f>P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="10" t="e">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
         <f>P27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="32">
         <f>$O$24*L16-$K$18/3</f>
-        <v>#DIV/0!</v>
+        <v>9.7240866018334522</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
@@ -5593,7 +5585,7 @@
         <v>3.5583004640372229</v>
       </c>
     </row>
-    <row r="29" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:20" x14ac:dyDescent="0.25">
       <c r="S29">
         <f t="shared" si="1"/>
         <v>-5.1676038076433812</v>
@@ -5603,20 +5595,20 @@
         <v>3.6951581741925006</v>
       </c>
     </row>
-    <row r="30" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>10</v>
       </c>
       <c r="K30">
         <f>(J26+K27+L28)/3</f>
-        <v>10.722534602547791</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="N30" t="s">
         <v>10</v>
       </c>
-      <c r="O30" t="e">
+      <c r="O30">
         <f>(N26+O27+P28)/3</f>
-        <v>#DIV/0!</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
@@ -5627,7 +5619,7 @@
         <v>3.8320158843477783</v>
       </c>
     </row>
-    <row r="31" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:20" x14ac:dyDescent="0.25">
       <c r="S31">
         <f t="shared" si="1"/>
         <v>-3.1676038076433812</v>
@@ -5637,7 +5629,7 @@
         <v>3.968873594503056</v>
       </c>
     </row>
-    <row r="32" spans="5:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:20" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>17</v>
       </c>
@@ -5653,30 +5645,30 @@
         <v>4.1057313046583337</v>
       </c>
     </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J33">
         <f>J26-K30</f>
-        <v>0</v>
+        <v>1.3333333333333321</v>
       </c>
       <c r="K33">
         <f>K26</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="N33" t="e">
+      <c r="N33">
         <f>N26-O30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" t="e">
+        <v>0.2296797406671427</v>
+      </c>
+      <c r="O33">
         <f>O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" t="e">
+        <v>-0.34451961100071427</v>
+      </c>
+      <c r="P33">
         <f>P26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
@@ -5687,30 +5679,30 @@
         <v>4.2425890148136114</v>
       </c>
     </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J34">
         <f>J27</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K34">
         <f>K27-K30</f>
-        <v>0</v>
+        <v>-1.6666666666666679</v>
       </c>
       <c r="L34">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="N34" t="e">
+      <c r="N34">
         <f>N27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" t="e">
+        <v>-0.34451961100071427</v>
+      </c>
+      <c r="O34">
         <f>O27-O30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" t="e">
+        <v>-0.28709967583392881</v>
+      </c>
+      <c r="P34">
         <f>P27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
@@ -5721,7 +5713,7 @@
         <v>4.3794467249688891</v>
       </c>
     </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J35">
         <f>J28</f>
         <v>0</v>
@@ -5732,19 +5724,19 @@
       </c>
       <c r="L35">
         <f>L28-K30</f>
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="N35">
+        <f>N28</f>
         <v>0</v>
       </c>
-      <c r="N35" t="e">
-        <f>N28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" t="e">
+      <c r="O35">
         <f>O28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" t="e">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <f>P28-O30</f>
-        <v>#DIV/0!</v>
+        <v>5.7419935166786118E-2</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
@@ -5755,7 +5747,7 @@
         <v>4.5163044351241668</v>
       </c>
     </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S36">
         <f t="shared" si="1"/>
         <v>1.8323961923566188</v>
@@ -5765,20 +5757,20 @@
         <v>4.6531621452794454</v>
       </c>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K37">
         <f>-(J26+K27+L28)</f>
-        <v>-32.167603807643374</v>
+        <v>-32.167603807643381</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O37" t="e">
+      <c r="O37">
         <f>-(N26+O27+P28)</f>
-        <v>#DIV/0!</v>
+        <v>-28.999999999999996</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
@@ -5789,20 +5781,20 @@
         <v>4.7900198554347231</v>
       </c>
     </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="K38" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J33:L35,J33:L35))</f>
-        <v>0</v>
+        <v>2.5166114784235836</v>
       </c>
       <c r="N38" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="3" t="e">
+      <c r="O38" s="3">
         <f>SQRT(0.5*SUMPRODUCT(N33:P35,N33:P35))</f>
-        <v>#DIV/0!</v>
+        <v>0.43351100379321272</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
@@ -5813,7 +5805,7 @@
         <v>4.9268775655900008</v>
       </c>
     </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S39">
         <f t="shared" si="1"/>
         <v>4.8323961923566188</v>
@@ -5823,20 +5815,20 @@
         <v>5.0637352757452785</v>
       </c>
     </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="7">
         <f>K38-$N$1*K37-$N$2</f>
-        <v>0</v>
+        <v>2.5166114784235836</v>
       </c>
       <c r="N40" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="7" t="e">
+      <c r="O40" s="7">
         <f>O38-$N$1*O37-$N$2</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
@@ -5847,7 +5839,7 @@
         <v>5.2005929859005562</v>
       </c>
     </row>
-    <row r="41" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S41">
         <f t="shared" si="1"/>
         <v>6.8323961923566188</v>
@@ -5857,7 +5849,7 @@
         <v>5.3374506960558339</v>
       </c>
     </row>
-    <row r="42" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>23</v>
       </c>
@@ -5868,9 +5860,9 @@
       <c r="N42" t="s">
         <v>24</v>
       </c>
-      <c r="O42" t="e">
+      <c r="O42">
         <f>IF(O37*$N$1+$N$2&lt;$O$38,1,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
@@ -5881,7 +5873,7 @@
         <v>5.4743084062111116</v>
       </c>
     </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S43">
         <f t="shared" si="1"/>
         <v>8.8323961923566188</v>
@@ -5891,7 +5883,7 @@
         <v>5.6111661163663893</v>
       </c>
     </row>
-    <row r="44" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S44">
         <f t="shared" si="1"/>
         <v>9.8323961923566188</v>
@@ -5901,7 +5893,7 @@
         <v>5.748023826521667</v>
       </c>
     </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S45">
         <f t="shared" si="1"/>
         <v>10.832396192356619</v>
@@ -5911,7 +5903,7 @@
         <v>5.8848815366769447</v>
       </c>
     </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S46">
         <f t="shared" si="1"/>
         <v>11.832396192356619</v>
@@ -5921,7 +5913,7 @@
         <v>6.0217392468322224</v>
       </c>
     </row>
-    <row r="47" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S47">
         <f t="shared" si="1"/>
         <v>12.832396192356619</v>
@@ -5931,7 +5923,7 @@
         <v>6.1585969569875001</v>
       </c>
     </row>
-    <row r="48" spans="10:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
       <c r="S48">
         <f t="shared" si="1"/>
         <v>13.832396192356619</v>
@@ -5941,7 +5933,7 @@
         <v>6.2954546671427778</v>
       </c>
     </row>
-    <row r="49" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S49">
         <f t="shared" si="1"/>
         <v>14.832396192356619</v>
@@ -5951,7 +5943,7 @@
         <v>6.4323123772980555</v>
       </c>
     </row>
-    <row r="50" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S50">
         <f t="shared" si="1"/>
         <v>15.832396192356619</v>
@@ -5961,7 +5953,7 @@
         <v>6.5691700874533341</v>
       </c>
     </row>
-    <row r="51" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S51">
         <f t="shared" si="1"/>
         <v>16.832396192356619</v>
@@ -5971,7 +5963,7 @@
         <v>6.7060277976086118</v>
       </c>
     </row>
-    <row r="52" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S52">
         <f t="shared" si="1"/>
         <v>17.832396192356619</v>
@@ -5981,7 +5973,7 @@
         <v>6.8428855077638895</v>
       </c>
     </row>
-    <row r="53" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S53">
         <f t="shared" si="1"/>
         <v>18.832396192356619</v>
@@ -5991,7 +5983,7 @@
         <v>6.9797432179191672</v>
       </c>
     </row>
-    <row r="54" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S54">
         <f t="shared" si="1"/>
         <v>19.832396192356619</v>
@@ -6001,7 +5993,7 @@
         <v>7.1166009280744449</v>
       </c>
     </row>
-    <row r="55" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S55">
         <f t="shared" si="1"/>
         <v>20.832396192356619</v>
@@ -6011,7 +6003,7 @@
         <v>7.2534586382297235</v>
       </c>
     </row>
-    <row r="56" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S56">
         <f t="shared" si="1"/>
         <v>21.832396192356619</v>
@@ -6021,7 +6013,7 @@
         <v>7.3903163483850012</v>
       </c>
     </row>
-    <row r="57" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S57">
         <f t="shared" si="1"/>
         <v>22.832396192356619</v>
@@ -6031,7 +6023,7 @@
         <v>7.5271740585402789</v>
       </c>
     </row>
-    <row r="58" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S58">
         <f t="shared" si="1"/>
         <v>23.832396192356619</v>
@@ -6041,7 +6033,7 @@
         <v>7.6640317686955566</v>
       </c>
     </row>
-    <row r="59" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S59">
         <f t="shared" si="1"/>
         <v>24.832396192356619</v>
@@ -6051,7 +6043,7 @@
         <v>7.8008894788508343</v>
       </c>
     </row>
-    <row r="60" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S60">
         <f t="shared" si="1"/>
         <v>25.832396192356619</v>
@@ -6061,7 +6053,7 @@
         <v>7.937747189006112</v>
       </c>
     </row>
-    <row r="61" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S61">
         <f t="shared" si="1"/>
         <v>26.832396192356619</v>
@@ -6071,7 +6063,7 @@
         <v>8.0746048991613897</v>
       </c>
     </row>
-    <row r="62" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S62">
         <f t="shared" si="1"/>
         <v>27.832396192356619</v>
@@ -6081,7 +6073,7 @@
         <v>8.2114626093166674</v>
       </c>
     </row>
-    <row r="63" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S63">
         <f t="shared" si="1"/>
         <v>28.832396192356619</v>
@@ -6091,7 +6083,7 @@
         <v>8.3483203194719451</v>
       </c>
     </row>
-    <row r="64" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S64">
         <f t="shared" si="1"/>
         <v>29.832396192356619</v>
@@ -6101,7 +6093,7 @@
         <v>8.4851780296272228</v>
       </c>
     </row>
-    <row r="65" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S65">
         <f t="shared" si="1"/>
         <v>30.832396192356619</v>
@@ -6111,7 +6103,7 @@
         <v>8.6220357397825005</v>
       </c>
     </row>
-    <row r="66" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S66">
         <f t="shared" si="1"/>
         <v>31.832396192356619</v>
@@ -6121,7 +6113,7 @@
         <v>8.7588934499377782</v>
       </c>
     </row>
-    <row r="67" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S67">
         <f t="shared" si="1"/>
         <v>32.832396192356619</v>
@@ -6131,7 +6123,7 @@
         <v>8.8957511600930559</v>
       </c>
     </row>
-    <row r="68" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S68">
         <f t="shared" ref="S68:S131" si="7">S67+1</f>
         <v>33.832396192356619</v>
@@ -6141,7 +6133,7 @@
         <v>9.0326088702483336</v>
       </c>
     </row>
-    <row r="69" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S69">
         <f t="shared" si="7"/>
         <v>34.832396192356619</v>
@@ -6151,7 +6143,7 @@
         <v>9.1694665804036113</v>
       </c>
     </row>
-    <row r="70" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S70">
         <f t="shared" si="7"/>
         <v>35.832396192356619</v>
@@ -6161,7 +6153,7 @@
         <v>9.3063242905588908</v>
       </c>
     </row>
-    <row r="71" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S71">
         <f t="shared" si="7"/>
         <v>36.832396192356619</v>
@@ -6171,7 +6163,7 @@
         <v>9.4431820007141667</v>
       </c>
     </row>
-    <row r="72" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S72">
         <f t="shared" si="7"/>
         <v>37.832396192356619</v>
@@ -6181,7 +6173,7 @@
         <v>9.5800397108694462</v>
       </c>
     </row>
-    <row r="73" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S73">
         <f t="shared" si="7"/>
         <v>38.832396192356619</v>
@@ -6191,7 +6183,7 @@
         <v>9.7168974210247221</v>
       </c>
     </row>
-    <row r="74" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S74">
         <f t="shared" si="7"/>
         <v>39.832396192356619</v>
@@ -6201,7 +6193,7 @@
         <v>9.8537551311800016</v>
       </c>
     </row>
-    <row r="75" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S75">
         <f t="shared" si="7"/>
         <v>40.832396192356619</v>
@@ -6211,7 +6203,7 @@
         <v>9.9906128413352775</v>
       </c>
     </row>
-    <row r="76" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S76">
         <f t="shared" si="7"/>
         <v>41.832396192356619</v>
@@ -6221,7 +6213,7 @@
         <v>10.127470551490557</v>
       </c>
     </row>
-    <row r="77" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S77">
         <f t="shared" si="7"/>
         <v>42.832396192356619</v>
@@ -6231,7 +6223,7 @@
         <v>10.264328261645833</v>
       </c>
     </row>
-    <row r="78" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S78">
         <f t="shared" si="7"/>
         <v>43.832396192356619</v>
@@ -6241,7 +6233,7 @@
         <v>10.401185971801112</v>
       </c>
     </row>
-    <row r="79" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S79">
         <f t="shared" si="7"/>
         <v>44.832396192356619</v>
@@ -6251,7 +6243,7 @@
         <v>10.53804368195639</v>
       </c>
     </row>
-    <row r="80" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S80">
         <f t="shared" si="7"/>
         <v>45.832396192356619</v>
@@ -6261,7 +6253,7 @@
         <v>10.674901392111668</v>
       </c>
     </row>
-    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S81">
         <f t="shared" si="7"/>
         <v>46.832396192356619</v>
@@ -6271,7 +6263,7 @@
         <v>10.811759102266945</v>
       </c>
     </row>
-    <row r="82" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S82">
         <f t="shared" si="7"/>
         <v>47.832396192356619</v>
@@ -6281,7 +6273,7 @@
         <v>10.948616812422223</v>
       </c>
     </row>
-    <row r="83" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S83">
         <f t="shared" si="7"/>
         <v>48.832396192356619</v>
@@ -6291,7 +6283,7 @@
         <v>11.085474522577501</v>
       </c>
     </row>
-    <row r="84" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S84">
         <f t="shared" si="7"/>
         <v>49.832396192356619</v>
@@ -6301,7 +6293,7 @@
         <v>11.222332232732779</v>
       </c>
     </row>
-    <row r="85" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S85">
         <f t="shared" si="7"/>
         <v>50.832396192356619</v>
@@ -6311,7 +6303,7 @@
         <v>11.359189942888056</v>
       </c>
     </row>
-    <row r="86" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S86">
         <f t="shared" si="7"/>
         <v>51.832396192356619</v>
@@ -6321,7 +6313,7 @@
         <v>11.496047653043334</v>
       </c>
     </row>
-    <row r="87" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S87">
         <f t="shared" si="7"/>
         <v>52.832396192356619</v>
@@ -6331,7 +6323,7 @@
         <v>11.632905363198612</v>
       </c>
     </row>
-    <row r="88" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S88">
         <f t="shared" si="7"/>
         <v>53.832396192356619</v>
@@ -6341,7 +6333,7 @@
         <v>11.769763073353889</v>
       </c>
     </row>
-    <row r="89" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S89">
         <f t="shared" si="7"/>
         <v>54.832396192356619</v>
@@ -6351,7 +6343,7 @@
         <v>11.906620783509167</v>
       </c>
     </row>
-    <row r="90" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S90">
         <f t="shared" si="7"/>
         <v>55.832396192356619</v>
@@ -6361,7 +6353,7 @@
         <v>12.043478493664445</v>
       </c>
     </row>
-    <row r="91" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S91">
         <f t="shared" si="7"/>
         <v>56.832396192356619</v>
@@ -6371,7 +6363,7 @@
         <v>12.180336203819724</v>
       </c>
     </row>
-    <row r="92" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S92">
         <f t="shared" si="7"/>
         <v>57.832396192356619</v>
@@ -6381,7 +6373,7 @@
         <v>12.317193913975</v>
       </c>
     </row>
-    <row r="93" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S93">
         <f t="shared" si="7"/>
         <v>58.832396192356619</v>
@@ -6391,7 +6383,7 @@
         <v>12.45405162413028</v>
       </c>
     </row>
-    <row r="94" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S94">
         <f t="shared" si="7"/>
         <v>59.832396192356619</v>
@@ -6401,7 +6393,7 @@
         <v>12.590909334285556</v>
       </c>
     </row>
-    <row r="95" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S95">
         <f t="shared" si="7"/>
         <v>60.832396192356619</v>
@@ -6411,7 +6403,7 @@
         <v>12.727767044440835</v>
       </c>
     </row>
-    <row r="96" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S96">
         <f t="shared" si="7"/>
         <v>61.832396192356619</v>
@@ -6421,7 +6413,7 @@
         <v>12.864624754596111</v>
       </c>
     </row>
-    <row r="97" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S97">
         <f t="shared" si="7"/>
         <v>62.832396192356619</v>
@@ -6431,7 +6423,7 @@
         <v>13.00148246475139</v>
       </c>
     </row>
-    <row r="98" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S98">
         <f t="shared" si="7"/>
         <v>63.832396192356619</v>
@@ -6441,7 +6433,7 @@
         <v>13.138340174906666</v>
       </c>
     </row>
-    <row r="99" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S99">
         <f t="shared" si="7"/>
         <v>64.832396192356612</v>
@@ -6451,7 +6443,7 @@
         <v>13.275197885061946</v>
       </c>
     </row>
-    <row r="100" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S100">
         <f t="shared" si="7"/>
         <v>65.832396192356612</v>
@@ -6461,7 +6453,7 @@
         <v>13.412055595217222</v>
       </c>
     </row>
-    <row r="101" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S101">
         <f t="shared" si="7"/>
         <v>66.832396192356612</v>
@@ -6471,7 +6463,7 @@
         <v>13.548913305372501</v>
       </c>
     </row>
-    <row r="102" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S102">
         <f t="shared" si="7"/>
         <v>67.832396192356612</v>
@@ -6481,7 +6473,7 @@
         <v>13.685771015527777</v>
       </c>
     </row>
-    <row r="103" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S103">
         <f t="shared" si="7"/>
         <v>68.832396192356612</v>
@@ -6491,7 +6483,7 @@
         <v>13.822628725683057</v>
       </c>
     </row>
-    <row r="104" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S104">
         <f t="shared" si="7"/>
         <v>69.832396192356612</v>
@@ -6501,7 +6493,7 @@
         <v>13.959486435838333</v>
       </c>
     </row>
-    <row r="105" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S105">
         <f t="shared" si="7"/>
         <v>70.832396192356612</v>
@@ -6511,7 +6503,7 @@
         <v>14.096344145993612</v>
       </c>
     </row>
-    <row r="106" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S106">
         <f t="shared" si="7"/>
         <v>71.832396192356612</v>
@@ -6521,7 +6513,7 @@
         <v>14.233201856148888</v>
       </c>
     </row>
-    <row r="107" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S107">
         <f t="shared" si="7"/>
         <v>72.832396192356612</v>
@@ -6531,7 +6523,7 @@
         <v>14.370059566304167</v>
       </c>
     </row>
-    <row r="108" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S108">
         <f t="shared" si="7"/>
         <v>73.832396192356612</v>
@@ -6541,7 +6533,7 @@
         <v>14.506917276459443</v>
       </c>
     </row>
-    <row r="109" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S109">
         <f t="shared" si="7"/>
         <v>74.832396192356612</v>
@@ -6551,7 +6543,7 @@
         <v>14.643774986614723</v>
       </c>
     </row>
-    <row r="110" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S110">
         <f t="shared" si="7"/>
         <v>75.832396192356612</v>
@@ -6561,7 +6553,7 @@
         <v>14.780632696769999</v>
       </c>
     </row>
-    <row r="111" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S111">
         <f t="shared" si="7"/>
         <v>76.832396192356612</v>
@@ -6571,7 +6563,7 @@
         <v>14.917490406925278</v>
       </c>
     </row>
-    <row r="112" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S112">
         <f t="shared" si="7"/>
         <v>77.832396192356612</v>
@@ -6581,7 +6573,7 @@
         <v>15.054348117080554</v>
       </c>
     </row>
-    <row r="113" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S113">
         <f t="shared" si="7"/>
         <v>78.832396192356612</v>
@@ -6591,7 +6583,7 @@
         <v>15.191205827235834</v>
       </c>
     </row>
-    <row r="114" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S114">
         <f t="shared" si="7"/>
         <v>79.832396192356612</v>
@@ -6601,7 +6593,7 @@
         <v>15.32806353739111</v>
       </c>
     </row>
-    <row r="115" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S115">
         <f t="shared" si="7"/>
         <v>80.832396192356612</v>
@@ -6611,7 +6603,7 @@
         <v>15.464921247546389</v>
       </c>
     </row>
-    <row r="116" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S116">
         <f t="shared" si="7"/>
         <v>81.832396192356612</v>
@@ -6621,7 +6613,7 @@
         <v>15.601778957701665</v>
       </c>
     </row>
-    <row r="117" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S117">
         <f t="shared" si="7"/>
         <v>82.832396192356612</v>
@@ -6631,7 +6623,7 @@
         <v>15.738636667856944</v>
       </c>
     </row>
-    <row r="118" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S118">
         <f t="shared" si="7"/>
         <v>83.832396192356612</v>
@@ -6641,7 +6633,7 @@
         <v>15.875494378012224</v>
       </c>
     </row>
-    <row r="119" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S119">
         <f t="shared" si="7"/>
         <v>84.832396192356612</v>
@@ -6651,7 +6643,7 @@
         <v>16.0123520881675</v>
       </c>
     </row>
-    <row r="120" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S120">
         <f t="shared" si="7"/>
         <v>85.832396192356612</v>
@@ -6661,7 +6653,7 @@
         <v>16.149209798322779</v>
       </c>
     </row>
-    <row r="121" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S121">
         <f t="shared" si="7"/>
         <v>86.832396192356612</v>
@@ -6671,7 +6663,7 @@
         <v>16.286067508478055</v>
       </c>
     </row>
-    <row r="122" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S122">
         <f t="shared" si="7"/>
         <v>87.832396192356612</v>
@@ -6681,7 +6673,7 @@
         <v>16.422925218633335</v>
       </c>
     </row>
-    <row r="123" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S123">
         <f t="shared" si="7"/>
         <v>88.832396192356612</v>
@@ -6691,7 +6683,7 @@
         <v>16.559782928788611</v>
       </c>
     </row>
-    <row r="124" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S124">
         <f t="shared" si="7"/>
         <v>89.832396192356612</v>
@@ -6701,7 +6693,7 @@
         <v>16.69664063894389</v>
       </c>
     </row>
-    <row r="125" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S125">
         <f t="shared" si="7"/>
         <v>90.832396192356612</v>
@@ -6711,7 +6703,7 @@
         <v>16.833498349099166</v>
       </c>
     </row>
-    <row r="126" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S126">
         <f t="shared" si="7"/>
         <v>91.832396192356612</v>
@@ -6721,7 +6713,7 @@
         <v>16.970356059254446</v>
       </c>
     </row>
-    <row r="127" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S127">
         <f t="shared" si="7"/>
         <v>92.832396192356612</v>
@@ -6731,7 +6723,7 @@
         <v>17.107213769409721</v>
       </c>
     </row>
-    <row r="128" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S128">
         <f t="shared" si="7"/>
         <v>93.832396192356612</v>
@@ -6741,7 +6733,7 @@
         <v>17.244071479565001</v>
       </c>
     </row>
-    <row r="129" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S129">
         <f t="shared" si="7"/>
         <v>94.832396192356612</v>
@@ -6751,7 +6743,7 @@
         <v>17.380929189720277</v>
       </c>
     </row>
-    <row r="130" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S130">
         <f t="shared" si="7"/>
         <v>95.832396192356612</v>
@@ -6761,7 +6753,7 @@
         <v>17.517786899875556</v>
       </c>
     </row>
-    <row r="131" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S131">
         <f t="shared" si="7"/>
         <v>96.832396192356612</v>
@@ -6771,7 +6763,7 @@
         <v>17.654644610030832</v>
       </c>
     </row>
-    <row r="132" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S132">
         <f t="shared" ref="S132:S134" si="9">S131+1</f>
         <v>97.832396192356612</v>
@@ -6781,7 +6773,7 @@
         <v>17.791502320186112</v>
       </c>
     </row>
-    <row r="133" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S133">
         <f t="shared" si="9"/>
         <v>98.832396192356612</v>
@@ -6791,7 +6783,7 @@
         <v>17.928360030341388</v>
       </c>
     </row>
-    <row r="134" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S134">
         <f t="shared" si="9"/>
         <v>99.832396192356612</v>
@@ -6801,214 +6793,214 @@
         <v>18.065217740496667</v>
       </c>
     </row>
-    <row r="135" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T136" s="4"/>
     </row>
-    <row r="137" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T137" s="4"/>
     </row>
-    <row r="138" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T138" s="4"/>
     </row>
-    <row r="139" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T139" s="4"/>
     </row>
-    <row r="140" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T140" s="4"/>
     </row>
-    <row r="141" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T144" s="4"/>
     </row>
-    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T148" s="4"/>
     </row>
-    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T149" s="4"/>
     </row>
-    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T150" s="4"/>
     </row>
-    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T151" s="4"/>
     </row>
-    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T152" s="4"/>
     </row>
-    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T154" s="4"/>
     </row>
-    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T155" s="4"/>
     </row>
-    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T159" s="4"/>
     </row>
-    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T160" s="4"/>
     </row>
-    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T161" s="4"/>
     </row>
-    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T169" s="4"/>
     </row>
-    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T171" s="4"/>
     </row>
-    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T174" s="4"/>
     </row>
-    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T175" s="4"/>
     </row>
-    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T176" s="4"/>
     </row>
-    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T177" s="4"/>
     </row>
-    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T178" s="4"/>
     </row>
-    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T180" s="4"/>
     </row>
-    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T183" s="4"/>
     </row>
-    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T185" s="4"/>
     </row>
-    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T186" s="4"/>
     </row>
-    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T187" s="4"/>
     </row>
-    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T188" s="4"/>
     </row>
-    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T189" s="4"/>
     </row>
-    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T191" s="4"/>
     </row>
-    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T193" s="4"/>
     </row>
-    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T194" s="4"/>
     </row>
-    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T195" s="4"/>
     </row>
-    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T196" s="4"/>
     </row>
-    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T197" s="4"/>
     </row>
-    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T198" s="4"/>
     </row>
-    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T199" s="4"/>
     </row>
-    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T200" s="4"/>
     </row>
-    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T201" s="4"/>
     </row>
-    <row r="202" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T202" s="4"/>
     </row>
-    <row r="203" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T203" s="4"/>
     </row>
-    <row r="204" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T204" s="4"/>
     </row>
   </sheetData>
@@ -7024,7 +7016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/draft.xlsx
+++ b/data/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Lei\Documents\Git\tiSPHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DC862-3D17-4A30-963C-E22F53A2A7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F758B-0D11-45B7-87AF-2FC3A83B58EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
   </bookViews>
@@ -1950,7 +1950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-29</c:v>
+                  <c:v>-32.167603807643381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1962,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5166114784235831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,7 +4757,7 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,6 +4825,10 @@
       <c r="K2" s="5">
         <v>25</v>
       </c>
+      <c r="L2">
+        <f>RADIANS(K2)</f>
+        <v>0.43633231299858238</v>
+      </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
@@ -4962,11 +4966,11 @@
       </c>
       <c r="J7" s="23">
         <f>E17</f>
-        <v>11</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="K7" s="24">
         <f>F17</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="25">
         <f>G17</f>
@@ -5012,18 +5016,18 @@
       </c>
       <c r="J8" s="26">
         <f>K7</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="27">
         <f>F18</f>
-        <v>8</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="L8" s="28">
         <f>G18</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N9" si="3">O7</f>
+        <f>O7</f>
         <v>5.8329722509281867E-3</v>
       </c>
       <c r="O8" s="10">
@@ -5070,11 +5074,11 @@
       </c>
       <c r="L9" s="31">
         <f>G19</f>
-        <v>10</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
-        <v>9.9990000999889729E-3</v>
+        <f>P7</f>
+        <v>2.5008334430833756E-3</v>
       </c>
       <c r="O9">
         <f>P8</f>
@@ -5112,7 +5116,7 @@
       </c>
       <c r="K11">
         <f>(J7+K8+L9)/3</f>
-        <v>9.6666666666666661</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -5148,7 +5152,7 @@
       </c>
       <c r="O12">
         <f>SUMPRODUCT(J14:L16,N7:P9)</f>
-        <v>-4.0553342981633628E-2</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
@@ -5178,9 +5182,9 @@
       <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="10" t="e">
         <f>(3*N1*O11+(N3/K19)*O12)/N3</f>
-        <v>-1.6114264794640717E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
@@ -5206,11 +5210,11 @@
       </c>
       <c r="J14">
         <f>J7-K11</f>
-        <v>1.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f>K7</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f>L7</f>
@@ -5228,11 +5232,11 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J15">
         <f>J8</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>K8-K11</f>
-        <v>-1.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f>L8</f>
@@ -5241,9 +5245,9 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="9" t="e">
         <f>$O$13*$N$3/$K$19</f>
-        <v>-4802.369654433538</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
@@ -5268,18 +5272,18 @@
       </c>
       <c r="L16">
         <f>L9-K11</f>
-        <v>0.33333333333333393</v>
-      </c>
-      <c r="N16" s="13">
-        <f>$O$13*$N$3/$K$19/J14</f>
-        <v>-3601.7772408251517</v>
-      </c>
-      <c r="O16" s="13">
-        <f>$O$13*$N$3/$K$19/K14</f>
-        <v>2401.184827216769</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="13" t="e">
+        <f>$O$15/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="13" t="e">
+        <f t="shared" ref="O16:P16" si="3">$O$15/K14</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P16" s="13" t="e">
-        <f>$O$13*$N$3/$K$19/L14</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S16">
@@ -5291,26 +5295,35 @@
         <v>1.9160079421738891</v>
       </c>
     </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>-2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="E17" s="17">
-        <v>11</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="F17" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="9" t="e">
         <f>O16</f>
-        <v>2401.184827216769</v>
-      </c>
-      <c r="O17" s="13">
-        <f>$O$13*$N$3/$K$19/K15</f>
-        <v>2881.4217926601236</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="13" t="e">
+        <f t="shared" ref="O17" si="4">$O$15/K15</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P17" s="13" t="e">
-        <f>$O$13*$N$3/$K$19/L15</f>
+        <f t="shared" ref="P17:P18" si="5">$O$15/L15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S17">
@@ -5322,12 +5335,21 @@
         <v>2.0528656523291668</v>
       </c>
     </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="20">
-        <v>8</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
@@ -5337,7 +5359,7 @@
       </c>
       <c r="K18">
         <f>-(J7+K8+L9)</f>
-        <v>-29</v>
+        <v>-32.167603807643381</v>
       </c>
       <c r="N18" s="9" t="e">
         <f>P16</f>
@@ -5347,9 +5369,9 @@
         <f>P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="13">
-        <f>$O$13*$N$3/$K$19/L16</f>
-        <v>-14407.108963300589</v>
+      <c r="P18" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -5360,7 +5382,16 @@
         <v>2.189723362484445</v>
       </c>
     </row>
-    <row r="19" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
@@ -5368,14 +5399,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="22">
-        <v>10</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J14:L16,J14:L16))</f>
-        <v>2.5166114784235831</v>
+        <v>0</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -5389,7 +5420,7 @@
         <v>2.3265810726397227</v>
       </c>
     </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S20">
         <f t="shared" si="1"/>
         <v>-14.167603807643381</v>
@@ -5399,13 +5430,13 @@
         <v>2.4634387827950004</v>
       </c>
     </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="12">
         <f>K19-$N$1*K18-$N$2</f>
-        <v>2.0831004746303705</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -5416,7 +5447,7 @@
         <v>2.6002964929502781</v>
       </c>
     </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S22">
         <f t="shared" si="1"/>
         <v>-12.167603807643381</v>
@@ -5426,7 +5457,7 @@
         <v>2.7371542031055558</v>
       </c>
     </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>23</v>
       </c>
@@ -5439,7 +5470,7 @@
       </c>
       <c r="O23" s="6">
         <f>IF(K18*$N$1+$N$2&lt;$K$19,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
@@ -5450,13 +5481,13 @@
         <v>2.8740119132608335</v>
       </c>
     </row>
-    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="4" t="e">
         <f>(K18*N1+N2)/K19</f>
-        <v>0.17225980550035713</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
@@ -5467,7 +5498,7 @@
         <v>3.0108696234161112</v>
       </c>
     </row>
-    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>25</v>
       </c>
@@ -5483,30 +5514,30 @@
         <v>3.1477273335713893</v>
       </c>
     </row>
-    <row r="26" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J26" s="32">
         <f>J7-(-$K$18-$N$2/$N$1)/3</f>
-        <v>12.055867935881126</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" ref="K26:L26" si="4">K7</f>
-        <v>-2</v>
+        <f t="shared" ref="K26:L26" si="6">K7</f>
+        <v>0</v>
       </c>
       <c r="L26" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="32" t="e">
         <f>$O$24*J14-$K$18/3</f>
-        <v>9.8963464073338088</v>
-      </c>
-      <c r="O26" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="32" t="e">
         <f>$O$24*K7</f>
-        <v>-0.34451961100071427</v>
-      </c>
-      <c r="P26" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="32" t="e">
         <f>$O$24*L7</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -5517,30 +5548,30 @@
         <v>3.284585043726667</v>
       </c>
     </row>
-    <row r="27" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J27" s="10">
         <f>K26</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="32">
         <f>K8-(-$K$18-$N$2/$N$1)/3</f>
-        <v>9.0558679358811265</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" ref="L27" si="5">L8</f>
+        <f t="shared" ref="L27" si="7">L8</f>
         <v>0</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="10" t="e">
         <f>O26</f>
-        <v>-0.34451961100071427</v>
-      </c>
-      <c r="O27" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="32" t="e">
         <f>$O$24*K15-$K$18/3</f>
-        <v>9.3795669908327373</v>
-      </c>
-      <c r="P27" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="32" t="e">
         <f>$O$24*L8</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
@@ -5551,7 +5582,7 @@
         <v>3.4214427538819447</v>
       </c>
     </row>
-    <row r="28" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J28" s="10">
         <f>L26</f>
         <v>0</v>
@@ -5562,19 +5593,19 @@
       </c>
       <c r="L28" s="32">
         <f>L9-(-$K$18-$N$2/$N$1)/3</f>
-        <v>11.055867935881126</v>
-      </c>
-      <c r="N28" s="10">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="N28" s="10" t="e">
         <f>P26</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="10" t="e">
         <f>P27</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="32" t="e">
         <f>$O$24*L16-$K$18/3</f>
-        <v>9.7240866018334522</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
@@ -5585,7 +5616,7 @@
         <v>3.5583004640372229</v>
       </c>
     </row>
-    <row r="29" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S29">
         <f t="shared" si="1"/>
         <v>-5.1676038076433812</v>
@@ -5595,7 +5626,7 @@
         <v>3.6951581741925006</v>
       </c>
     </row>
-    <row r="30" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>10</v>
       </c>
@@ -5606,9 +5637,9 @@
       <c r="N30" t="s">
         <v>10</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="e">
         <f>(N26+O27+P28)/3</f>
-        <v>9.6666666666666661</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
@@ -5619,7 +5650,7 @@
         <v>3.8320158843477783</v>
       </c>
     </row>
-    <row r="31" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S31">
         <f t="shared" si="1"/>
         <v>-3.1676038076433812</v>
@@ -5629,7 +5660,7 @@
         <v>3.968873594503056</v>
       </c>
     </row>
-    <row r="32" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>17</v>
       </c>
@@ -5648,27 +5679,27 @@
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J33">
         <f>J26-K30</f>
-        <v>1.3333333333333321</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f>K26</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="e">
         <f>N26-O30</f>
-        <v>0.2296797406671427</v>
-      </c>
-      <c r="O33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" t="e">
         <f>O26</f>
-        <v>-0.34451961100071427</v>
-      </c>
-      <c r="P33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" t="e">
         <f>P26</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
@@ -5682,27 +5713,27 @@
     <row r="34" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J34">
         <f>J27</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f>K27-K30</f>
-        <v>-1.6666666666666679</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="e">
         <f>N27</f>
-        <v>-0.34451961100071427</v>
-      </c>
-      <c r="O34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" t="e">
         <f>O27-O30</f>
-        <v>-0.28709967583392881</v>
-      </c>
-      <c r="P34">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" t="e">
         <f>P27</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
@@ -5724,19 +5755,19 @@
       </c>
       <c r="L35">
         <f>L28-K30</f>
-        <v>0.33333333333333215</v>
-      </c>
-      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="e">
         <f>N28</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" t="e">
         <f>O28</f>
-        <v>0</v>
-      </c>
-      <c r="P35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" t="e">
         <f>P28-O30</f>
-        <v>5.7419935166786118E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
@@ -5768,9 +5799,9 @@
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="e">
         <f>-(N26+O27+P28)</f>
-        <v>-28.999999999999996</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
@@ -5787,14 +5818,14 @@
       </c>
       <c r="K38" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J33:L35,J33:L35))</f>
-        <v>2.5166114784235836</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="3" t="e">
         <f>SQRT(0.5*SUMPRODUCT(N33:P35,N33:P35))</f>
-        <v>0.43351100379321272</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
@@ -5821,14 +5852,14 @@
       </c>
       <c r="K40" s="7">
         <f>K38-$N$1*K37-$N$2</f>
-        <v>2.5166114784235836</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="7" t="e">
         <f>O38-$N$1*O37-$N$2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
@@ -5860,9 +5891,9 @@
       <c r="N42" t="s">
         <v>24</v>
       </c>
-      <c r="O42">
+      <c r="O42" t="e">
         <f>IF(O37*$N$1+$N$2&lt;$O$38,1,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
@@ -6119,677 +6150,677 @@
         <v>32.832396192356619</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" ref="T67:T130" si="6">S67*$N$1+$N$2</f>
+        <f t="shared" ref="T67:T130" si="8">S67*$N$1+$N$2</f>
         <v>8.8957511600930559</v>
       </c>
     </row>
     <row r="68" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S68">
-        <f t="shared" ref="S68:S131" si="7">S67+1</f>
+        <f t="shared" ref="S68:S131" si="9">S67+1</f>
         <v>33.832396192356619</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.0326088702483336</v>
       </c>
     </row>
     <row r="69" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34.832396192356619</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1694665804036113</v>
       </c>
     </row>
     <row r="70" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.832396192356619</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3063242905588908</v>
       </c>
     </row>
     <row r="71" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36.832396192356619</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4431820007141667</v>
       </c>
     </row>
     <row r="72" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.832396192356619</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5800397108694462</v>
       </c>
     </row>
     <row r="73" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.832396192356619</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7168974210247221</v>
       </c>
     </row>
     <row r="74" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39.832396192356619</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.8537551311800016</v>
       </c>
     </row>
     <row r="75" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40.832396192356619</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9906128413352775</v>
       </c>
     </row>
     <row r="76" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41.832396192356619</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.127470551490557</v>
       </c>
     </row>
     <row r="77" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42.832396192356619</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.264328261645833</v>
       </c>
     </row>
     <row r="78" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.832396192356619</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.401185971801112</v>
       </c>
     </row>
     <row r="79" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44.832396192356619</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.53804368195639</v>
       </c>
     </row>
     <row r="80" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45.832396192356619</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.674901392111668</v>
       </c>
     </row>
     <row r="81" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46.832396192356619</v>
       </c>
       <c r="T81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.811759102266945</v>
       </c>
     </row>
     <row r="82" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47.832396192356619</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10.948616812422223</v>
       </c>
     </row>
     <row r="83" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.832396192356619</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.085474522577501</v>
       </c>
     </row>
     <row r="84" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49.832396192356619</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.222332232732779</v>
       </c>
     </row>
     <row r="85" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.832396192356619</v>
       </c>
       <c r="T85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.359189942888056</v>
       </c>
     </row>
     <row r="86" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51.832396192356619</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.496047653043334</v>
       </c>
     </row>
     <row r="87" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>52.832396192356619</v>
       </c>
       <c r="T87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.632905363198612</v>
       </c>
     </row>
     <row r="88" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53.832396192356619</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.769763073353889</v>
       </c>
     </row>
     <row r="89" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54.832396192356619</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.906620783509167</v>
       </c>
     </row>
     <row r="90" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55.832396192356619</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.043478493664445</v>
       </c>
     </row>
     <row r="91" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56.832396192356619</v>
       </c>
       <c r="T91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.180336203819724</v>
       </c>
     </row>
     <row r="92" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.832396192356619</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.317193913975</v>
       </c>
     </row>
     <row r="93" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58.832396192356619</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.45405162413028</v>
       </c>
     </row>
     <row r="94" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59.832396192356619</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.590909334285556</v>
       </c>
     </row>
     <row r="95" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60.832396192356619</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.727767044440835</v>
       </c>
     </row>
     <row r="96" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61.832396192356619</v>
       </c>
       <c r="T96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.864624754596111</v>
       </c>
     </row>
     <row r="97" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>62.832396192356619</v>
       </c>
       <c r="T97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.00148246475139</v>
       </c>
     </row>
     <row r="98" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63.832396192356619</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.138340174906666</v>
       </c>
     </row>
     <row r="99" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64.832396192356612</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.275197885061946</v>
       </c>
     </row>
     <row r="100" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65.832396192356612</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.412055595217222</v>
       </c>
     </row>
     <row r="101" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>66.832396192356612</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.548913305372501</v>
       </c>
     </row>
     <row r="102" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67.832396192356612</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.685771015527777</v>
       </c>
     </row>
     <row r="103" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68.832396192356612</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.822628725683057</v>
       </c>
     </row>
     <row r="104" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69.832396192356612</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.959486435838333</v>
       </c>
     </row>
     <row r="105" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70.832396192356612</v>
       </c>
       <c r="T105" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.096344145993612</v>
       </c>
     </row>
     <row r="106" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71.832396192356612</v>
       </c>
       <c r="T106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.233201856148888</v>
       </c>
     </row>
     <row r="107" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72.832396192356612</v>
       </c>
       <c r="T107" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.370059566304167</v>
       </c>
     </row>
     <row r="108" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73.832396192356612</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.506917276459443</v>
       </c>
     </row>
     <row r="109" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>74.832396192356612</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.643774986614723</v>
       </c>
     </row>
     <row r="110" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75.832396192356612</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.780632696769999</v>
       </c>
     </row>
     <row r="111" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76.832396192356612</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.917490406925278</v>
       </c>
     </row>
     <row r="112" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77.832396192356612</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.054348117080554</v>
       </c>
     </row>
     <row r="113" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.832396192356612</v>
       </c>
       <c r="T113" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.191205827235834</v>
       </c>
     </row>
     <row r="114" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79.832396192356612</v>
       </c>
       <c r="T114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.32806353739111</v>
       </c>
     </row>
     <row r="115" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80.832396192356612</v>
       </c>
       <c r="T115" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.464921247546389</v>
       </c>
     </row>
     <row r="116" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81.832396192356612</v>
       </c>
       <c r="T116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.601778957701665</v>
       </c>
     </row>
     <row r="117" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82.832396192356612</v>
       </c>
       <c r="T117" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.738636667856944</v>
       </c>
     </row>
     <row r="118" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83.832396192356612</v>
       </c>
       <c r="T118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.875494378012224</v>
       </c>
     </row>
     <row r="119" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84.832396192356612</v>
       </c>
       <c r="T119" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.0123520881675</v>
       </c>
     </row>
     <row r="120" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85.832396192356612</v>
       </c>
       <c r="T120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.149209798322779</v>
       </c>
     </row>
     <row r="121" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86.832396192356612</v>
       </c>
       <c r="T121" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.286067508478055</v>
       </c>
     </row>
     <row r="122" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87.832396192356612</v>
       </c>
       <c r="T122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.422925218633335</v>
       </c>
     </row>
     <row r="123" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88.832396192356612</v>
       </c>
       <c r="T123" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.559782928788611</v>
       </c>
     </row>
     <row r="124" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89.832396192356612</v>
       </c>
       <c r="T124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.69664063894389</v>
       </c>
     </row>
     <row r="125" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90.832396192356612</v>
       </c>
       <c r="T125" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.833498349099166</v>
       </c>
     </row>
     <row r="126" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91.832396192356612</v>
       </c>
       <c r="T126" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.970356059254446</v>
       </c>
     </row>
     <row r="127" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92.832396192356612</v>
       </c>
       <c r="T127" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.107213769409721</v>
       </c>
     </row>
     <row r="128" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>93.832396192356612</v>
       </c>
       <c r="T128" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.244071479565001</v>
       </c>
     </row>
     <row r="129" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>94.832396192356612</v>
       </c>
       <c r="T129" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.380929189720277</v>
       </c>
     </row>
     <row r="130" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95.832396192356612</v>
       </c>
       <c r="T130" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.517786899875556</v>
       </c>
     </row>
     <row r="131" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96.832396192356612</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" ref="T131:T134" si="8">S131*$N$1+$N$2</f>
+        <f t="shared" ref="T131:T134" si="10">S131*$N$1+$N$2</f>
         <v>17.654644610030832</v>
       </c>
     </row>
     <row r="132" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S132">
-        <f t="shared" ref="S132:S134" si="9">S131+1</f>
+        <f t="shared" ref="S132:S134" si="11">S131+1</f>
         <v>97.832396192356612</v>
       </c>
       <c r="T132" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.791502320186112</v>
       </c>
     </row>
     <row r="133" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98.832396192356612</v>
       </c>
       <c r="T133" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.928360030341388</v>
       </c>
     </row>
     <row r="134" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>99.832396192356612</v>
       </c>
       <c r="T134" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18.065217740496667</v>
       </c>
     </row>

--- a/data/draft.xlsx
+++ b/data/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Lei\Documents\Git\tiSPHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F758B-0D11-45B7-87AF-2FC3A83B58EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81B531-AE33-418A-96DE-BE439BE15300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
   </bookViews>
@@ -1950,7 +1950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-32.167603807643381</c:v>
+                  <c:v>-15.299199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1962,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3084714018876937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,7 +4757,7 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,11 +4966,11 @@
       </c>
       <c r="J7" s="23">
         <f>E17</f>
-        <v>10.722534602547794</v>
+        <v>6.2991999999999999</v>
       </c>
       <c r="K7" s="24">
         <f>F17</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L7" s="25">
         <f>G17</f>
@@ -5016,11 +5016,11 @@
       </c>
       <c r="J8" s="26">
         <f>K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="27">
         <f>F18</f>
-        <v>10.722534602547794</v>
+        <v>4</v>
       </c>
       <c r="L8" s="28">
         <f>G18</f>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="L9" s="31">
         <f>G19</f>
-        <v>10.722534602547794</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <f>P7</f>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="K11">
         <f>(J7+K8+L9)/3</f>
-        <v>10.722534602547794</v>
+        <v>5.099733333333333</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O12">
         <f>SUMPRODUCT(J14:L16,N7:P9)</f>
-        <v>0</v>
+        <v>-2.8833809327410222E-2</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
@@ -5182,9 +5182,9 @@
       <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="10" t="e">
+      <c r="O13" s="10">
         <f>(3*N1*O11+(N3/K19)*O12)/N3</f>
-        <v>#DIV/0!</v>
+        <v>-1.2490434149333368E-2</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
@@ -5210,11 +5210,11 @@
       </c>
       <c r="J14">
         <f>J7-K11</f>
-        <v>0</v>
+        <v>1.1994666666666669</v>
       </c>
       <c r="K14">
         <f>K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L14">
         <f>L7</f>
@@ -5232,11 +5232,11 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J15">
         <f>J8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K15">
         <f>K8-K11</f>
-        <v>0</v>
+        <v>-1.099733333333333</v>
       </c>
       <c r="L15">
         <f>L8</f>
@@ -5245,9 +5245,9 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="9">
         <f>$O$13*$N$3/$K$19</f>
-        <v>#DIV/0!</v>
+        <v>-4058.0210802437168</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
@@ -5272,15 +5272,15 @@
       </c>
       <c r="L16">
         <f>L9-K11</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="e">
+        <v>-9.9733333333333007E-2</v>
+      </c>
+      <c r="N16" s="13">
         <f>$O$15/J14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="13" t="e">
+        <v>-3383.187872590915</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" ref="O16:P16" si="3">$O$15/K14</f>
-        <v>#DIV/0!</v>
+        <v>2029.0105401218584</v>
       </c>
       <c r="P16" s="13" t="e">
         <f t="shared" si="3"/>
@@ -5306,21 +5306,21 @@
         <v>0</v>
       </c>
       <c r="E17" s="17">
-        <v>10.722534602547794</v>
+        <v>6.2991999999999999</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="9" t="e">
+      <c r="N17" s="9">
         <f>O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="13" t="e">
+        <v>2029.0105401218584</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" ref="O17" si="4">$O$15/K15</f>
-        <v>#DIV/0!</v>
+        <v>3690.0046195232644</v>
       </c>
       <c r="P17" s="13" t="e">
         <f t="shared" ref="P17:P18" si="5">$O$15/L15</f>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="20">
-        <v>10.722534602547794</v>
+        <v>4</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="K18">
         <f>-(J7+K8+L9)</f>
-        <v>-32.167603807643381</v>
+        <v>-15.299199999999999</v>
       </c>
       <c r="N18" s="9" t="e">
         <f>P16</f>
@@ -5369,9 +5369,9 @@
         <f>P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="13" t="e">
+      <c r="P18" s="13">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>40688.71403987697</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -5399,14 +5399,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="22">
-        <v>10.722534602547794</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J14:L16,J14:L16))</f>
-        <v>0</v>
+        <v>2.3084714018876937</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="K21" s="12">
         <f>K19-$N$1*K18-$N$2</f>
-        <v>0</v>
+        <v>-9.9717200948923335E-5</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -5485,9 +5485,9 @@
       <c r="N24" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="4" t="e">
+      <c r="O24" s="4">
         <f>(K18*N1+N2)/K19</f>
-        <v>#DIV/0!</v>
+        <v>1.000043196203716</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
@@ -5517,27 +5517,27 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J26" s="32">
         <f>J7-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547794</v>
+        <v>11.92200126921446</v>
       </c>
       <c r="K26" s="32">
         <f t="shared" ref="K26:L26" si="6">K7</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L26" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N26" s="32" t="e">
+      <c r="N26" s="32">
         <f>$O$24*J14-$K$18/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="32" t="e">
+        <v>6.2992518124064834</v>
+      </c>
+      <c r="O26" s="32">
         <f>$O$24*K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="32" t="e">
+        <v>-2.0000863924074319</v>
+      </c>
+      <c r="P26" s="32">
         <f>$O$24*L7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -5551,27 +5551,27 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J27" s="10">
         <f>K26</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K27" s="32">
         <f>K8-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547794</v>
+        <v>9.6228012692144596</v>
       </c>
       <c r="L27" s="32">
         <f t="shared" ref="L27" si="7">L8</f>
         <v>0</v>
       </c>
-      <c r="N27" s="10" t="e">
+      <c r="N27" s="10">
         <f>O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="32" t="e">
+        <v>-2.0000863924074319</v>
+      </c>
+      <c r="O27" s="32">
         <f>$O$24*K15-$K$18/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="32" t="e">
+        <v>3.9999524956949002</v>
+      </c>
+      <c r="P27" s="32">
         <f>$O$24*L8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
@@ -5593,19 +5593,19 @@
       </c>
       <c r="L28" s="32">
         <f>L9-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.722534602547794</v>
-      </c>
-      <c r="N28" s="10" t="e">
+        <v>10.62280126921446</v>
+      </c>
+      <c r="N28" s="10">
         <f>P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="10" t="e">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
         <f>P27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="32">
         <f>$O$24*L16-$K$18/3</f>
-        <v>#DIV/0!</v>
+        <v>4.9999956918986159</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
@@ -5632,14 +5632,14 @@
       </c>
       <c r="K30">
         <f>(J26+K27+L28)/3</f>
-        <v>10.722534602547794</v>
+        <v>10.722534602547791</v>
       </c>
       <c r="N30" t="s">
         <v>10</v>
       </c>
-      <c r="O30" t="e">
+      <c r="O30">
         <f>(N26+O27+P28)/3</f>
-        <v>#DIV/0!</v>
+        <v>5.099733333333333</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
@@ -5679,27 +5679,27 @@
     <row r="33" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J33">
         <f>J26-K30</f>
-        <v>0</v>
+        <v>1.1994666666666696</v>
       </c>
       <c r="K33">
         <f>K26</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="N33" t="e">
+      <c r="N33">
         <f>N26-O30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" t="e">
+        <v>1.1995184790731503</v>
+      </c>
+      <c r="O33">
         <f>O26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" t="e">
+        <v>-2.0000863924074319</v>
+      </c>
+      <c r="P33">
         <f>P26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
@@ -5713,27 +5713,27 @@
     <row r="34" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J34">
         <f>J27</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K34">
         <f>K27-K30</f>
-        <v>0</v>
+        <v>-1.0997333333333312</v>
       </c>
       <c r="L34">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="N34" t="e">
+      <c r="N34">
         <f>N27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" t="e">
+        <v>-2.0000863924074319</v>
+      </c>
+      <c r="O34">
         <f>O27-O30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" t="e">
+        <v>-1.0997808376384328</v>
+      </c>
+      <c r="P34">
         <f>P27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
@@ -5755,19 +5755,19 @@
       </c>
       <c r="L35">
         <f>L28-K30</f>
+        <v>-9.9733333333331231E-2</v>
+      </c>
+      <c r="N35">
+        <f>N28</f>
         <v>0</v>
       </c>
-      <c r="N35" t="e">
-        <f>N28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" t="e">
+      <c r="O35">
         <f>O28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" t="e">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <f>P28-O30</f>
-        <v>#DIV/0!</v>
+        <v>-9.9737641434717084E-2</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
@@ -5794,14 +5794,14 @@
       </c>
       <c r="K37">
         <f>-(J26+K27+L28)</f>
-        <v>-32.167603807643381</v>
+        <v>-32.167603807643374</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O37" t="e">
+      <c r="O37">
         <f>-(N26+O27+P28)</f>
-        <v>#DIV/0!</v>
+        <v>-15.299199999999999</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
@@ -5818,14 +5818,14 @@
       </c>
       <c r="K38" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J33:L35,J33:L35))</f>
-        <v>0</v>
+        <v>2.3084714018876937</v>
       </c>
       <c r="N38" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="3" t="e">
+      <c r="O38" s="3">
         <f>SQRT(0.5*SUMPRODUCT(N33:P35,N33:P35))</f>
-        <v>#DIV/0!</v>
+        <v>2.3085711190886422</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="K40" s="7">
         <f>K38-$N$1*K37-$N$2</f>
-        <v>0</v>
+        <v>2.3084714018876928</v>
       </c>
       <c r="N40" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="7" t="e">
+      <c r="O40" s="7">
         <f>O38-$N$1*O37-$N$2</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
@@ -5891,9 +5891,9 @@
       <c r="N42" t="s">
         <v>24</v>
       </c>
-      <c r="O42" t="e">
+      <c r="O42">
         <f>IF(O37*$N$1+$N$2&lt;$O$38,1,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>

--- a/data/draft.xlsx
+++ b/data/draft.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Lei\Documents\Git\tiSPHi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZLei\Documents\Git\tiSPHi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81B531-AE33-418A-96DE-BE439BE15300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8360470-CD08-4702-B732-913D4AD2B135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F96AF2A0-9E31-4557-A308-4BAF8AA6954F}"/>
   </bookViews>
   <sheets>
     <sheet name="kernel" sheetId="1" r:id="rId1"/>
     <sheet name="tensor" sheetId="2" r:id="rId2"/>
     <sheet name="D-P" sheetId="3" r:id="rId3"/>
     <sheet name="mu(I)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>r</t>
   </si>
@@ -305,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -315,7 +324,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1950,7 +1958,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-15.299199999999999</c:v>
+                  <c:v>-32.167603807643381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1970,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3084714018876937</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,12 +3829,12 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>-1.9</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>-1.8</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="1">
         <v>-1.7</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D6" s="1">
         <v>-1.6</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D7" s="1">
         <v>-1.5</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="1">
         <v>-1.4</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>0.12277667038517644</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="1">
         <v>-1.3</v>
       </c>
@@ -3989,7 +3997,7 @@
         <v>0.16711269024649009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D10" s="1">
         <v>-1.2</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>0.21826963624031365</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D11" s="1">
         <v>-1.1000000000000001</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>0.27624750836664685</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
         <v>-1</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>0.34104630662549001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D13" s="1">
         <v>-0.9</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>0.39902417875182328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D14" s="1">
         <v>-0.8</v>
       </c>
@@ -4074,7 +4082,7 @@
         <v>0.43653927248062713</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
         <v>-0.7</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>0.45359158781190173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" s="1">
         <v>-0.6</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>0.45018112474564675</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>-0.5</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>0.42630788328186253</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
         <v>-0.4</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>0.38197186342054884</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <v>-0.3</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>0.31717306516170568</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
         <v>-0.2</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>0.23191148850533322</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>-0.1</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>0.12618713345143132</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>0</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -4227,7 +4235,7 @@
         <v>-0.12618713345143132</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
         <v>0.2</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>-0.23191148850533322</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D25" s="1">
         <v>0.3</v>
       </c>
@@ -4261,7 +4269,7 @@
         <v>-0.31717306516170568</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" s="1">
         <v>0.4</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>-0.38197186342054884</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>-0.42630788328186253</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D28" s="1">
         <v>0.6</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>-0.45018112474564675</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D29" s="1">
         <v>0.7</v>
       </c>
@@ -4329,7 +4337,7 @@
         <v>-0.45359158781190173</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D30" s="1">
         <v>0.8</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>-0.43653927248062713</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D31" s="1">
         <v>0.9</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>-0.39902417875182328</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D32" s="1">
         <v>1</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>-0.34104630662549001</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -4397,7 +4405,7 @@
         <v>-0.27624750836664685</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="1">
         <v>1.2</v>
       </c>
@@ -4414,7 +4422,7 @@
         <v>-0.21826963624031365</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D35" s="1">
         <v>1.3</v>
       </c>
@@ -4431,7 +4439,7 @@
         <v>-0.16711269024649009</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="1">
         <v>1.4</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>-0.12277667038517644</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="1">
         <v>1.5</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>-8.5261576656372504E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="1">
         <v>1.6</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>-5.4567409060078377E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="1">
         <v>1.7</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>-3.0694167596294109E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="1">
         <v>1.8</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>-1.3641852265019594E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="1">
         <v>1.9</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>-3.4104630662549059E-3</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="1">
         <v>2</v>
       </c>
@@ -4564,14 +4572,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>100</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-40</v>
       </c>
@@ -4607,7 +4615,7 @@
         <v>-36400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>-3456000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>B10</f>
         <v>40</v>
@@ -4646,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4670,12 +4678,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ref="A16:C18" si="0">A6-A11</f>
         <v>60</v>
@@ -4696,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>-40</v>
@@ -4725,7 +4733,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4757,17 +4765,17 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="16" width="9.5703125" customWidth="1"/>
+    <col min="10" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" customWidth="1"/>
+    <col min="14" max="16" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E2" s="5">
         <v>3</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -4858,13 +4866,13 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>1800000</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f>K3/(2*(1+K4))</f>
         <v>750000</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>0.1368577101552777</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -4896,7 +4904,7 @@
       <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f>K3/(3*(1-2*K4))</f>
         <v>1000000.0000000001</v>
       </c>
@@ -4909,7 +4917,7 @@
         <v>0.2737154203105554</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="S5">
         <f t="shared" si="1"/>
         <v>-29.167603807643381</v>
@@ -4919,7 +4927,7 @@
         <v>0.41057313046583355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>44</v>
       </c>
@@ -4947,7 +4955,7 @@
         <v>0.54743084062111125</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E7">
         <f>E2+G2*$H$2</f>
         <v>3.0001000000000002</v>
@@ -4964,27 +4972,27 @@
         <f>F7-F2</f>
         <v>3.0001000000000388E-2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <f>E17</f>
-        <v>6.2991999999999999</v>
-      </c>
-      <c r="K7" s="24">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="K7" s="23">
         <f>F17</f>
-        <v>-2</v>
-      </c>
-      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>E12</f>
         <v>3.3332222259327936E-3</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <f>0.5*(F12+E13)</f>
         <v>5.8329722509281867E-3</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <f>0.5*(G12+E14)</f>
         <v>2.5008334430833756E-3</v>
       </c>
@@ -4997,7 +5005,7 @@
         <v>0.68428855077638939</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E8">
         <f>E3+G3*$H$2</f>
         <v>2.0002</v>
@@ -5014,15 +5022,15 @@
         <f t="shared" si="2"/>
         <v>2.0001999999999853E-2</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <f>K7</f>
-        <v>-2</v>
-      </c>
-      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
         <f>F18</f>
-        <v>4</v>
-      </c>
-      <c r="L8" s="28">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="L8" s="27">
         <f>G18</f>
         <v>0</v>
       </c>
@@ -5030,11 +5038,11 @@
         <f>O7</f>
         <v>5.8329722509281867E-3</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <f>F13</f>
         <v>9.9990000999889729E-3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <f>0.5*(G13+F14)</f>
         <v>6.2518751875367679E-3</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>0.82114626093166709</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E9">
         <f>E4+G4*$H$2</f>
         <v>0.99985000000000002</v>
@@ -5064,17 +5072,17 @@
         <f t="shared" si="2"/>
         <v>9.9985000000000213E-3</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <f>G19</f>
-        <v>5</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="N9">
         <f>P7</f>
@@ -5084,7 +5092,7 @@
         <f>P8</f>
         <v>6.2518751875367679E-3</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <f>G14</f>
         <v>-1.5002250337548949E-2</v>
       </c>
@@ -5097,7 +5105,7 @@
         <v>0.95800397108694479</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="S10">
         <f t="shared" si="1"/>
         <v>-24.167603807643381</v>
@@ -5107,7 +5115,7 @@
         <v>1.0948616812422225</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>36</v>
       </c>
@@ -5116,7 +5124,7 @@
       </c>
       <c r="K11">
         <f>(J7+K8+L9)/3</f>
-        <v>5.099733333333333</v>
+        <v>10.722534602547794</v>
       </c>
       <c r="N11" t="s">
         <v>34</v>
@@ -5134,7 +5142,7 @@
         <v>1.2317193913975002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E12">
         <f>G7/H7</f>
         <v>3.3332222259327936E-3</v>
@@ -5152,7 +5160,7 @@
       </c>
       <c r="O12">
         <f>SUMPRODUCT(J14:L16,N7:P9)</f>
-        <v>-2.8833809327410222E-2</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
@@ -5163,7 +5171,7 @@
         <v>1.3685771015527779</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E13">
         <f>G8/H7</f>
         <v>6.6664444518507848E-3</v>
@@ -5182,9 +5190,9 @@
       <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9" t="e">
         <f>(3*N1*O11+(N3/K19)*O12)/N3</f>
-        <v>-1.2490434149333368E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
@@ -5195,7 +5203,7 @@
         <v>1.505434811708056</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E14">
         <f>G9/H7</f>
         <v>-4.9998333388880881E-3</v>
@@ -5210,11 +5218,11 @@
       </c>
       <c r="J14">
         <f>J7-K11</f>
-        <v>1.1994666666666669</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f>K7</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f>L7</f>
@@ -5229,14 +5237,14 @@
         <v>1.6422925218633337</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J15">
         <f>J8</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>K8-K11</f>
-        <v>-1.099733333333333</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f>L8</f>
@@ -5245,9 +5253,9 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8" t="e">
         <f>$O$13*$N$3/$K$19</f>
-        <v>-4058.0210802437168</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
@@ -5258,7 +5266,7 @@
         <v>1.7791502320186114</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -5272,17 +5280,17 @@
       </c>
       <c r="L16">
         <f>L9-K11</f>
-        <v>-9.9733333333333007E-2</v>
-      </c>
-      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="e">
         <f>$O$15/J14</f>
-        <v>-3383.187872590915</v>
-      </c>
-      <c r="O16" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="12" t="e">
         <f t="shared" ref="O16:P16" si="3">$O$15/K14</f>
-        <v>2029.0105401218584</v>
-      </c>
-      <c r="P16" s="13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -5295,34 +5303,26 @@
         <v>1.9160079421738891</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>-2</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E17" s="16">
+        <f>-S2/3</f>
+        <v>10.722534602547794</v>
+      </c>
+      <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
-        <v>6.2991999999999999</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-2</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>0</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8" t="e">
         <f>O16</f>
-        <v>2029.0105401218584</v>
-      </c>
-      <c r="O17" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="12" t="e">
         <f t="shared" ref="O17" si="4">$O$15/K15</f>
-        <v>3690.0046195232644</v>
-      </c>
-      <c r="P17" s="13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="12" t="e">
         <f t="shared" ref="P17:P18" si="5">$O$15/L15</f>
         <v>#DIV/0!</v>
       </c>
@@ -5335,23 +5335,14 @@
         <v>2.0528656523291668</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20">
-        <v>4</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="F18" s="19">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="G18" s="20">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -5359,19 +5350,19 @@
       </c>
       <c r="K18">
         <f>-(J7+K8+L9)</f>
-        <v>-15.299199999999999</v>
-      </c>
-      <c r="N18" s="9" t="e">
+        <v>-32.167603807643381</v>
+      </c>
+      <c r="N18" s="8" t="e">
         <f>P16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="9" t="e">
+      <c r="O18" s="8" t="e">
         <f>P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12" t="e">
         <f t="shared" si="5"/>
-        <v>40688.71403987697</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -5382,35 +5373,26 @@
         <v>2.189723362484445</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="14">
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="F19" s="15">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>5</v>
+      <c r="G19" s="21">
+        <v>10.722534602547794</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="3">
         <f>SQRT(0.5*SUMPRODUCT(J14:L16,J14:L16))</f>
-        <v>2.3084714018876937</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
       <c r="S19">
         <f t="shared" si="1"/>
         <v>-15.167603807643381</v>
@@ -5420,7 +5402,7 @@
         <v>2.3265810726397227</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S20">
         <f t="shared" si="1"/>
         <v>-14.167603807643381</v>
@@ -5430,13 +5412,13 @@
         <v>2.4634387827950004</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="11" t="s">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <f>K19-$N$1*K18-$N$2</f>
-        <v>-9.9717200948923335E-5</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -5447,7 +5429,7 @@
         <v>2.6002964929502781</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S22">
         <f t="shared" si="1"/>
         <v>-12.167603807643381</v>
@@ -5457,7 +5439,7 @@
         <v>2.7371542031055558</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:20" x14ac:dyDescent="0.35">
       <c r="J23" t="s">
         <v>23</v>
       </c>
@@ -5481,13 +5463,13 @@
         <v>2.8740119132608335</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:20" x14ac:dyDescent="0.35">
       <c r="N24" t="s">
         <v>27</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="4" t="e">
         <f>(K18*N1+N2)/K19</f>
-        <v>1.000043196203716</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
@@ -5498,7 +5480,7 @@
         <v>3.0108696234161112</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:20" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
         <v>25</v>
       </c>
@@ -5514,64 +5496,64 @@
         <v>3.1477273335713893</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="32">
+    <row r="26" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J26" s="31">
         <f>J7-(-$K$18-$N$2/$N$1)/3</f>
-        <v>11.92200126921446</v>
-      </c>
-      <c r="K26" s="32">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="K26" s="31">
         <f t="shared" ref="K26:L26" si="6">K7</f>
-        <v>-2</v>
-      </c>
-      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="31" t="e">
         <f>$O$24*J14-$K$18/3</f>
-        <v>6.2992518124064834</v>
-      </c>
-      <c r="O26" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="31" t="e">
         <f>$O$24*K7</f>
-        <v>-2.0000863924074319</v>
-      </c>
-      <c r="P26" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="31" t="e">
         <f>$O$24*L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>-8.1676038076433812</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.284585043726667</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J27" s="9">
+        <f>K26</f>
         <v>0</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>-8.1676038076433812</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="0"/>
-        <v>3.284585043726667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="10">
-        <f>K26</f>
-        <v>-2</v>
-      </c>
-      <c r="K27" s="32">
+      <c r="K27" s="31">
         <f>K8-(-$K$18-$N$2/$N$1)/3</f>
-        <v>9.6228012692144596</v>
-      </c>
-      <c r="L27" s="32">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="L27" s="31">
         <f t="shared" ref="L27" si="7">L8</f>
         <v>0</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9" t="e">
         <f>O26</f>
-        <v>-2.0000863924074319</v>
-      </c>
-      <c r="O27" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="31" t="e">
         <f>$O$24*K15-$K$18/3</f>
-        <v>3.9999524956949002</v>
-      </c>
-      <c r="P27" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="31" t="e">
         <f>$O$24*L8</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
@@ -5582,30 +5564,30 @@
         <v>3.4214427538819447</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J28" s="10">
+    <row r="28" spans="5:20" x14ac:dyDescent="0.35">
+      <c r="J28" s="9">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <f>L27</f>
         <v>0</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="31">
         <f>L9-(-$K$18-$N$2/$N$1)/3</f>
-        <v>10.62280126921446</v>
-      </c>
-      <c r="N28" s="10">
+        <v>10.722534602547794</v>
+      </c>
+      <c r="N28" s="9" t="e">
         <f>P26</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="9" t="e">
         <f>P27</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="31" t="e">
         <f>$O$24*L16-$K$18/3</f>
-        <v>4.9999956918986159</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
@@ -5616,7 +5598,7 @@
         <v>3.5583004640372229</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S29">
         <f t="shared" si="1"/>
         <v>-5.1676038076433812</v>
@@ -5626,21 +5608,7 @@
         <v>3.6951581741925006</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <f>(J26+K27+L28)/3</f>
-        <v>10.722534602547791</v>
-      </c>
-      <c r="N30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <f>(N26+O27+P28)/3</f>
-        <v>5.099733333333333</v>
-      </c>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S30">
         <f t="shared" si="1"/>
         <v>-4.1676038076433812</v>
@@ -5650,7 +5618,7 @@
         <v>3.8320158843477783</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S31">
         <f t="shared" si="1"/>
         <v>-3.1676038076433812</v>
@@ -5660,13 +5628,7 @@
         <v>3.968873594503056</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" t="s">
-        <v>17</v>
-      </c>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.35">
       <c r="S32">
         <f t="shared" si="1"/>
         <v>-2.1676038076433812</v>
@@ -5676,31 +5638,7 @@
         <v>4.1057313046583337</v>
       </c>
     </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33">
-        <f>J26-K30</f>
-        <v>1.1994666666666696</v>
-      </c>
-      <c r="K33">
-        <f>K26</f>
-        <v>-2</v>
-      </c>
-      <c r="L33">
-        <f>L26</f>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f>N26-O30</f>
-        <v>1.1995184790731503</v>
-      </c>
-      <c r="O33">
-        <f>O26</f>
-        <v>-2.0000863924074319</v>
-      </c>
-      <c r="P33">
-        <f>P26</f>
-        <v>0</v>
-      </c>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S33">
         <f t="shared" si="1"/>
         <v>-1.1676038076433812</v>
@@ -5710,31 +5648,7 @@
         <v>4.2425890148136114</v>
       </c>
     </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J34">
-        <f>J27</f>
-        <v>-2</v>
-      </c>
-      <c r="K34">
-        <f>K27-K30</f>
-        <v>-1.0997333333333312</v>
-      </c>
-      <c r="L34">
-        <f>L27</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f>N27</f>
-        <v>-2.0000863924074319</v>
-      </c>
-      <c r="O34">
-        <f>O27-O30</f>
-        <v>-1.0997808376384328</v>
-      </c>
-      <c r="P34">
-        <f>P27</f>
-        <v>0</v>
-      </c>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S34">
         <f t="shared" si="1"/>
         <v>-0.16760380764338123</v>
@@ -5744,31 +5658,7 @@
         <v>4.3794467249688891</v>
       </c>
     </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J35">
-        <f>J28</f>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f>K28</f>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f>L28-K30</f>
-        <v>-9.9733333333331231E-2</v>
-      </c>
-      <c r="N35">
-        <f>N28</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f>O28</f>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f>P28-O30</f>
-        <v>-9.9737641434717084E-2</v>
-      </c>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S35">
         <f t="shared" si="1"/>
         <v>0.83239619235661877</v>
@@ -5778,7 +5668,7 @@
         <v>4.5163044351241668</v>
       </c>
     </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S36">
         <f t="shared" si="1"/>
         <v>1.8323961923566188</v>
@@ -5788,21 +5678,7 @@
         <v>4.6531621452794454</v>
       </c>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37">
-        <f>-(J26+K27+L28)</f>
-        <v>-32.167603807643374</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37">
-        <f>-(N26+O27+P28)</f>
-        <v>-15.299199999999999</v>
-      </c>
+    <row r="37" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S37">
         <f t="shared" si="1"/>
         <v>2.8323961923566188</v>
@@ -5812,21 +5688,7 @@
         <v>4.7900198554347231</v>
       </c>
     </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="3">
-        <f>SQRT(0.5*SUMPRODUCT(J33:L35,J33:L35))</f>
-        <v>2.3084714018876937</v>
-      </c>
-      <c r="N38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="3">
-        <f>SQRT(0.5*SUMPRODUCT(N33:P35,N33:P35))</f>
-        <v>2.3085711190886422</v>
-      </c>
+    <row r="38" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S38">
         <f t="shared" si="1"/>
         <v>3.8323961923566188</v>
@@ -5836,7 +5698,7 @@
         <v>4.9268775655900008</v>
       </c>
     </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S39">
         <f t="shared" si="1"/>
         <v>4.8323961923566188</v>
@@ -5846,21 +5708,7 @@
         <v>5.0637352757452785</v>
       </c>
     </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="7">
-        <f>K38-$N$1*K37-$N$2</f>
-        <v>2.3084714018876928</v>
-      </c>
-      <c r="N40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="7">
-        <f>O38-$N$1*O37-$N$2</f>
-        <v>0</v>
-      </c>
+    <row r="40" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S40">
         <f t="shared" si="1"/>
         <v>5.8323961923566188</v>
@@ -5870,7 +5718,7 @@
         <v>5.2005929859005562</v>
       </c>
     </row>
-    <row r="41" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S41">
         <f t="shared" si="1"/>
         <v>6.8323961923566188</v>
@@ -5880,21 +5728,7 @@
         <v>5.3374506960558339</v>
       </c>
     </row>
-    <row r="42" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42">
-        <f>IF(K37*$N$1+$N$2&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42">
-        <f>IF(O37*$N$1+$N$2&lt;$O$38,1,0)</f>
-        <v>0</v>
-      </c>
+    <row r="42" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S42">
         <f t="shared" si="1"/>
         <v>7.8323961923566188</v>
@@ -5904,7 +5738,7 @@
         <v>5.4743084062111116</v>
       </c>
     </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S43">
         <f t="shared" si="1"/>
         <v>8.8323961923566188</v>
@@ -5914,7 +5748,7 @@
         <v>5.6111661163663893</v>
       </c>
     </row>
-    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S44">
         <f t="shared" si="1"/>
         <v>9.8323961923566188</v>
@@ -5924,7 +5758,7 @@
         <v>5.748023826521667</v>
       </c>
     </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S45">
         <f t="shared" si="1"/>
         <v>10.832396192356619</v>
@@ -5934,7 +5768,7 @@
         <v>5.8848815366769447</v>
       </c>
     </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S46">
         <f t="shared" si="1"/>
         <v>11.832396192356619</v>
@@ -5944,7 +5778,7 @@
         <v>6.0217392468322224</v>
       </c>
     </row>
-    <row r="47" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S47">
         <f t="shared" si="1"/>
         <v>12.832396192356619</v>
@@ -5954,7 +5788,7 @@
         <v>6.1585969569875001</v>
       </c>
     </row>
-    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S48">
         <f t="shared" si="1"/>
         <v>13.832396192356619</v>
@@ -5964,7 +5798,7 @@
         <v>6.2954546671427778</v>
       </c>
     </row>
-    <row r="49" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S49">
         <f t="shared" si="1"/>
         <v>14.832396192356619</v>
@@ -5974,7 +5808,7 @@
         <v>6.4323123772980555</v>
       </c>
     </row>
-    <row r="50" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S50">
         <f t="shared" si="1"/>
         <v>15.832396192356619</v>
@@ -5984,7 +5818,7 @@
         <v>6.5691700874533341</v>
       </c>
     </row>
-    <row r="51" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S51">
         <f t="shared" si="1"/>
         <v>16.832396192356619</v>
@@ -5994,7 +5828,7 @@
         <v>6.7060277976086118</v>
       </c>
     </row>
-    <row r="52" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S52">
         <f t="shared" si="1"/>
         <v>17.832396192356619</v>
@@ -6004,7 +5838,7 @@
         <v>6.8428855077638895</v>
       </c>
     </row>
-    <row r="53" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S53">
         <f t="shared" si="1"/>
         <v>18.832396192356619</v>
@@ -6014,7 +5848,7 @@
         <v>6.9797432179191672</v>
       </c>
     </row>
-    <row r="54" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S54">
         <f t="shared" si="1"/>
         <v>19.832396192356619</v>
@@ -6024,7 +5858,7 @@
         <v>7.1166009280744449</v>
       </c>
     </row>
-    <row r="55" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S55">
         <f t="shared" si="1"/>
         <v>20.832396192356619</v>
@@ -6034,7 +5868,7 @@
         <v>7.2534586382297235</v>
       </c>
     </row>
-    <row r="56" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S56">
         <f t="shared" si="1"/>
         <v>21.832396192356619</v>
@@ -6044,7 +5878,7 @@
         <v>7.3903163483850012</v>
       </c>
     </row>
-    <row r="57" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S57">
         <f t="shared" si="1"/>
         <v>22.832396192356619</v>
@@ -6054,7 +5888,7 @@
         <v>7.5271740585402789</v>
       </c>
     </row>
-    <row r="58" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S58">
         <f t="shared" si="1"/>
         <v>23.832396192356619</v>
@@ -6064,7 +5898,7 @@
         <v>7.6640317686955566</v>
       </c>
     </row>
-    <row r="59" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S59">
         <f t="shared" si="1"/>
         <v>24.832396192356619</v>
@@ -6074,7 +5908,7 @@
         <v>7.8008894788508343</v>
       </c>
     </row>
-    <row r="60" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S60">
         <f t="shared" si="1"/>
         <v>25.832396192356619</v>
@@ -6084,7 +5918,7 @@
         <v>7.937747189006112</v>
       </c>
     </row>
-    <row r="61" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S61">
         <f t="shared" si="1"/>
         <v>26.832396192356619</v>
@@ -6094,7 +5928,7 @@
         <v>8.0746048991613897</v>
       </c>
     </row>
-    <row r="62" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S62">
         <f t="shared" si="1"/>
         <v>27.832396192356619</v>
@@ -6104,7 +5938,7 @@
         <v>8.2114626093166674</v>
       </c>
     </row>
-    <row r="63" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S63">
         <f t="shared" si="1"/>
         <v>28.832396192356619</v>
@@ -6114,7 +5948,7 @@
         <v>8.3483203194719451</v>
       </c>
     </row>
-    <row r="64" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S64">
         <f t="shared" si="1"/>
         <v>29.832396192356619</v>
@@ -6124,7 +5958,7 @@
         <v>8.4851780296272228</v>
       </c>
     </row>
-    <row r="65" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S65">
         <f t="shared" si="1"/>
         <v>30.832396192356619</v>
@@ -6134,7 +5968,7 @@
         <v>8.6220357397825005</v>
       </c>
     </row>
-    <row r="66" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S66">
         <f t="shared" si="1"/>
         <v>31.832396192356619</v>
@@ -6144,7 +5978,7 @@
         <v>8.7588934499377782</v>
       </c>
     </row>
-    <row r="67" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S67">
         <f t="shared" si="1"/>
         <v>32.832396192356619</v>
@@ -6154,7 +5988,7 @@
         <v>8.8957511600930559</v>
       </c>
     </row>
-    <row r="68" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S68">
         <f t="shared" ref="S68:S131" si="9">S67+1</f>
         <v>33.832396192356619</v>
@@ -6164,7 +5998,7 @@
         <v>9.0326088702483336</v>
       </c>
     </row>
-    <row r="69" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S69">
         <f t="shared" si="9"/>
         <v>34.832396192356619</v>
@@ -6174,7 +6008,7 @@
         <v>9.1694665804036113</v>
       </c>
     </row>
-    <row r="70" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S70">
         <f t="shared" si="9"/>
         <v>35.832396192356619</v>
@@ -6184,7 +6018,7 @@
         <v>9.3063242905588908</v>
       </c>
     </row>
-    <row r="71" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S71">
         <f t="shared" si="9"/>
         <v>36.832396192356619</v>
@@ -6194,7 +6028,7 @@
         <v>9.4431820007141667</v>
       </c>
     </row>
-    <row r="72" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S72">
         <f t="shared" si="9"/>
         <v>37.832396192356619</v>
@@ -6204,7 +6038,7 @@
         <v>9.5800397108694462</v>
       </c>
     </row>
-    <row r="73" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S73">
         <f t="shared" si="9"/>
         <v>38.832396192356619</v>
@@ -6214,7 +6048,7 @@
         <v>9.7168974210247221</v>
       </c>
     </row>
-    <row r="74" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S74">
         <f t="shared" si="9"/>
         <v>39.832396192356619</v>
@@ -6224,7 +6058,7 @@
         <v>9.8537551311800016</v>
       </c>
     </row>
-    <row r="75" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S75">
         <f t="shared" si="9"/>
         <v>40.832396192356619</v>
@@ -6234,7 +6068,7 @@
         <v>9.9906128413352775</v>
       </c>
     </row>
-    <row r="76" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S76">
         <f t="shared" si="9"/>
         <v>41.832396192356619</v>
@@ -6244,7 +6078,7 @@
         <v>10.127470551490557</v>
       </c>
     </row>
-    <row r="77" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S77">
         <f t="shared" si="9"/>
         <v>42.832396192356619</v>
@@ -6254,7 +6088,7 @@
         <v>10.264328261645833</v>
       </c>
     </row>
-    <row r="78" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S78">
         <f t="shared" si="9"/>
         <v>43.832396192356619</v>
@@ -6264,7 +6098,7 @@
         <v>10.401185971801112</v>
       </c>
     </row>
-    <row r="79" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S79">
         <f t="shared" si="9"/>
         <v>44.832396192356619</v>
@@ -6274,7 +6108,7 @@
         <v>10.53804368195639</v>
       </c>
     </row>
-    <row r="80" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S80">
         <f t="shared" si="9"/>
         <v>45.832396192356619</v>
@@ -6284,7 +6118,7 @@
         <v>10.674901392111668</v>
       </c>
     </row>
-    <row r="81" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S81">
         <f t="shared" si="9"/>
         <v>46.832396192356619</v>
@@ -6294,7 +6128,7 @@
         <v>10.811759102266945</v>
       </c>
     </row>
-    <row r="82" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S82">
         <f t="shared" si="9"/>
         <v>47.832396192356619</v>
@@ -6304,7 +6138,7 @@
         <v>10.948616812422223</v>
       </c>
     </row>
-    <row r="83" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S83">
         <f t="shared" si="9"/>
         <v>48.832396192356619</v>
@@ -6314,7 +6148,7 @@
         <v>11.085474522577501</v>
       </c>
     </row>
-    <row r="84" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S84">
         <f t="shared" si="9"/>
         <v>49.832396192356619</v>
@@ -6324,7 +6158,7 @@
         <v>11.222332232732779</v>
       </c>
     </row>
-    <row r="85" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S85">
         <f t="shared" si="9"/>
         <v>50.832396192356619</v>
@@ -6334,7 +6168,7 @@
         <v>11.359189942888056</v>
       </c>
     </row>
-    <row r="86" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S86">
         <f t="shared" si="9"/>
         <v>51.832396192356619</v>
@@ -6344,7 +6178,7 @@
         <v>11.496047653043334</v>
       </c>
     </row>
-    <row r="87" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S87">
         <f t="shared" si="9"/>
         <v>52.832396192356619</v>
@@ -6354,7 +6188,7 @@
         <v>11.632905363198612</v>
       </c>
     </row>
-    <row r="88" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S88">
         <f t="shared" si="9"/>
         <v>53.832396192356619</v>
@@ -6364,7 +6198,7 @@
         <v>11.769763073353889</v>
       </c>
     </row>
-    <row r="89" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S89">
         <f t="shared" si="9"/>
         <v>54.832396192356619</v>
@@ -6374,7 +6208,7 @@
         <v>11.906620783509167</v>
       </c>
     </row>
-    <row r="90" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S90">
         <f t="shared" si="9"/>
         <v>55.832396192356619</v>
@@ -6384,7 +6218,7 @@
         <v>12.043478493664445</v>
       </c>
     </row>
-    <row r="91" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S91">
         <f t="shared" si="9"/>
         <v>56.832396192356619</v>
@@ -6394,7 +6228,7 @@
         <v>12.180336203819724</v>
       </c>
     </row>
-    <row r="92" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S92">
         <f t="shared" si="9"/>
         <v>57.832396192356619</v>
@@ -6404,7 +6238,7 @@
         <v>12.317193913975</v>
       </c>
     </row>
-    <row r="93" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S93">
         <f t="shared" si="9"/>
         <v>58.832396192356619</v>
@@ -6414,7 +6248,7 @@
         <v>12.45405162413028</v>
       </c>
     </row>
-    <row r="94" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S94">
         <f t="shared" si="9"/>
         <v>59.832396192356619</v>
@@ -6424,7 +6258,7 @@
         <v>12.590909334285556</v>
       </c>
     </row>
-    <row r="95" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S95">
         <f t="shared" si="9"/>
         <v>60.832396192356619</v>
@@ -6434,7 +6268,7 @@
         <v>12.727767044440835</v>
       </c>
     </row>
-    <row r="96" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S96">
         <f t="shared" si="9"/>
         <v>61.832396192356619</v>
@@ -6444,7 +6278,7 @@
         <v>12.864624754596111</v>
       </c>
     </row>
-    <row r="97" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S97">
         <f t="shared" si="9"/>
         <v>62.832396192356619</v>
@@ -6454,7 +6288,7 @@
         <v>13.00148246475139</v>
       </c>
     </row>
-    <row r="98" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S98">
         <f t="shared" si="9"/>
         <v>63.832396192356619</v>
@@ -6464,7 +6298,7 @@
         <v>13.138340174906666</v>
       </c>
     </row>
-    <row r="99" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S99">
         <f t="shared" si="9"/>
         <v>64.832396192356612</v>
@@ -6474,7 +6308,7 @@
         <v>13.275197885061946</v>
       </c>
     </row>
-    <row r="100" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S100">
         <f t="shared" si="9"/>
         <v>65.832396192356612</v>
@@ -6484,7 +6318,7 @@
         <v>13.412055595217222</v>
       </c>
     </row>
-    <row r="101" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S101">
         <f t="shared" si="9"/>
         <v>66.832396192356612</v>
@@ -6494,7 +6328,7 @@
         <v>13.548913305372501</v>
       </c>
     </row>
-    <row r="102" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S102">
         <f t="shared" si="9"/>
         <v>67.832396192356612</v>
@@ -6504,7 +6338,7 @@
         <v>13.685771015527777</v>
       </c>
     </row>
-    <row r="103" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S103">
         <f t="shared" si="9"/>
         <v>68.832396192356612</v>
@@ -6514,7 +6348,7 @@
         <v>13.822628725683057</v>
       </c>
     </row>
-    <row r="104" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S104">
         <f t="shared" si="9"/>
         <v>69.832396192356612</v>
@@ -6524,7 +6358,7 @@
         <v>13.959486435838333</v>
       </c>
     </row>
-    <row r="105" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S105">
         <f t="shared" si="9"/>
         <v>70.832396192356612</v>
@@ -6534,7 +6368,7 @@
         <v>14.096344145993612</v>
       </c>
     </row>
-    <row r="106" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S106">
         <f t="shared" si="9"/>
         <v>71.832396192356612</v>
@@ -6544,7 +6378,7 @@
         <v>14.233201856148888</v>
       </c>
     </row>
-    <row r="107" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S107">
         <f t="shared" si="9"/>
         <v>72.832396192356612</v>
@@ -6554,7 +6388,7 @@
         <v>14.370059566304167</v>
       </c>
     </row>
-    <row r="108" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S108">
         <f t="shared" si="9"/>
         <v>73.832396192356612</v>
@@ -6564,7 +6398,7 @@
         <v>14.506917276459443</v>
       </c>
     </row>
-    <row r="109" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S109">
         <f t="shared" si="9"/>
         <v>74.832396192356612</v>
@@ -6574,7 +6408,7 @@
         <v>14.643774986614723</v>
       </c>
     </row>
-    <row r="110" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S110">
         <f t="shared" si="9"/>
         <v>75.832396192356612</v>
@@ -6584,7 +6418,7 @@
         <v>14.780632696769999</v>
       </c>
     </row>
-    <row r="111" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S111">
         <f t="shared" si="9"/>
         <v>76.832396192356612</v>
@@ -6594,7 +6428,7 @@
         <v>14.917490406925278</v>
       </c>
     </row>
-    <row r="112" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S112">
         <f t="shared" si="9"/>
         <v>77.832396192356612</v>
@@ -6604,7 +6438,7 @@
         <v>15.054348117080554</v>
       </c>
     </row>
-    <row r="113" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S113">
         <f t="shared" si="9"/>
         <v>78.832396192356612</v>
@@ -6614,7 +6448,7 @@
         <v>15.191205827235834</v>
       </c>
     </row>
-    <row r="114" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S114">
         <f t="shared" si="9"/>
         <v>79.832396192356612</v>
@@ -6624,7 +6458,7 @@
         <v>15.32806353739111</v>
       </c>
     </row>
-    <row r="115" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S115">
         <f t="shared" si="9"/>
         <v>80.832396192356612</v>
@@ -6634,7 +6468,7 @@
         <v>15.464921247546389</v>
       </c>
     </row>
-    <row r="116" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S116">
         <f t="shared" si="9"/>
         <v>81.832396192356612</v>
@@ -6644,7 +6478,7 @@
         <v>15.601778957701665</v>
       </c>
     </row>
-    <row r="117" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S117">
         <f t="shared" si="9"/>
         <v>82.832396192356612</v>
@@ -6654,7 +6488,7 @@
         <v>15.738636667856944</v>
       </c>
     </row>
-    <row r="118" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S118">
         <f t="shared" si="9"/>
         <v>83.832396192356612</v>
@@ -6664,7 +6498,7 @@
         <v>15.875494378012224</v>
       </c>
     </row>
-    <row r="119" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S119">
         <f t="shared" si="9"/>
         <v>84.832396192356612</v>
@@ -6674,7 +6508,7 @@
         <v>16.0123520881675</v>
       </c>
     </row>
-    <row r="120" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S120">
         <f t="shared" si="9"/>
         <v>85.832396192356612</v>
@@ -6684,7 +6518,7 @@
         <v>16.149209798322779</v>
       </c>
     </row>
-    <row r="121" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S121">
         <f t="shared" si="9"/>
         <v>86.832396192356612</v>
@@ -6694,7 +6528,7 @@
         <v>16.286067508478055</v>
       </c>
     </row>
-    <row r="122" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S122">
         <f t="shared" si="9"/>
         <v>87.832396192356612</v>
@@ -6704,7 +6538,7 @@
         <v>16.422925218633335</v>
       </c>
     </row>
-    <row r="123" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S123">
         <f t="shared" si="9"/>
         <v>88.832396192356612</v>
@@ -6714,7 +6548,7 @@
         <v>16.559782928788611</v>
       </c>
     </row>
-    <row r="124" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S124">
         <f t="shared" si="9"/>
         <v>89.832396192356612</v>
@@ -6724,7 +6558,7 @@
         <v>16.69664063894389</v>
       </c>
     </row>
-    <row r="125" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S125">
         <f t="shared" si="9"/>
         <v>90.832396192356612</v>
@@ -6734,7 +6568,7 @@
         <v>16.833498349099166</v>
       </c>
     </row>
-    <row r="126" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S126">
         <f t="shared" si="9"/>
         <v>91.832396192356612</v>
@@ -6744,7 +6578,7 @@
         <v>16.970356059254446</v>
       </c>
     </row>
-    <row r="127" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S127">
         <f t="shared" si="9"/>
         <v>92.832396192356612</v>
@@ -6754,7 +6588,7 @@
         <v>17.107213769409721</v>
       </c>
     </row>
-    <row r="128" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S128">
         <f t="shared" si="9"/>
         <v>93.832396192356612</v>
@@ -6764,7 +6598,7 @@
         <v>17.244071479565001</v>
       </c>
     </row>
-    <row r="129" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S129">
         <f t="shared" si="9"/>
         <v>94.832396192356612</v>
@@ -6774,7 +6608,7 @@
         <v>17.380929189720277</v>
       </c>
     </row>
-    <row r="130" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S130">
         <f t="shared" si="9"/>
         <v>95.832396192356612</v>
@@ -6784,7 +6618,7 @@
         <v>17.517786899875556</v>
       </c>
     </row>
-    <row r="131" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S131">
         <f t="shared" si="9"/>
         <v>96.832396192356612</v>
@@ -6794,7 +6628,7 @@
         <v>17.654644610030832</v>
       </c>
     </row>
-    <row r="132" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S132">
         <f t="shared" ref="S132:S134" si="11">S131+1</f>
         <v>97.832396192356612</v>
@@ -6804,7 +6638,7 @@
         <v>17.791502320186112</v>
       </c>
     </row>
-    <row r="133" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S133">
         <f t="shared" si="11"/>
         <v>98.832396192356612</v>
@@ -6814,7 +6648,7 @@
         <v>17.928360030341388</v>
       </c>
     </row>
-    <row r="134" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S134">
         <f t="shared" si="11"/>
         <v>99.832396192356612</v>
@@ -6824,214 +6658,214 @@
         <v>18.065217740496667</v>
       </c>
     </row>
-    <row r="135" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T136" s="4"/>
     </row>
-    <row r="137" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T137" s="4"/>
     </row>
-    <row r="138" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T138" s="4"/>
     </row>
-    <row r="139" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T139" s="4"/>
     </row>
-    <row r="140" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T140" s="4"/>
     </row>
-    <row r="141" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="19:20" x14ac:dyDescent="0.35">
       <c r="T144" s="4"/>
     </row>
-    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T148" s="4"/>
     </row>
-    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T149" s="4"/>
     </row>
-    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T150" s="4"/>
     </row>
-    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T151" s="4"/>
     </row>
-    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T152" s="4"/>
     </row>
-    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T154" s="4"/>
     </row>
-    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T155" s="4"/>
     </row>
-    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T159" s="4"/>
     </row>
-    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T160" s="4"/>
     </row>
-    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T161" s="4"/>
     </row>
-    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T169" s="4"/>
     </row>
-    <row r="170" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T171" s="4"/>
     </row>
-    <row r="172" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T174" s="4"/>
     </row>
-    <row r="175" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T175" s="4"/>
     </row>
-    <row r="176" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T176" s="4"/>
     </row>
-    <row r="177" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T177" s="4"/>
     </row>
-    <row r="178" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T178" s="4"/>
     </row>
-    <row r="179" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T180" s="4"/>
     </row>
-    <row r="181" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T183" s="4"/>
     </row>
-    <row r="184" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T185" s="4"/>
     </row>
-    <row r="186" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T186" s="4"/>
     </row>
-    <row r="187" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T187" s="4"/>
     </row>
-    <row r="188" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T188" s="4"/>
     </row>
-    <row r="189" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T189" s="4"/>
     </row>
-    <row r="190" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T191" s="4"/>
     </row>
-    <row r="192" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T193" s="4"/>
     </row>
-    <row r="194" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T194" s="4"/>
     </row>
-    <row r="195" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T195" s="4"/>
     </row>
-    <row r="196" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T196" s="4"/>
     </row>
-    <row r="197" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T197" s="4"/>
     </row>
-    <row r="198" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T198" s="4"/>
     </row>
-    <row r="199" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T199" s="4"/>
     </row>
-    <row r="200" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T200" s="4"/>
     </row>
-    <row r="201" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T201" s="4"/>
     </row>
-    <row r="202" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T202" s="4"/>
     </row>
-    <row r="203" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T203" s="4"/>
     </row>
-    <row r="204" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="20:20" x14ac:dyDescent="0.35">
       <c r="T204" s="4"/>
     </row>
   </sheetData>
@@ -7047,8 +6881,61 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92E1FB-ED04-489D-B564-7D28636B4410}">
+  <dimension ref="D8:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>